--- a/2023/scotland_league-one_2023-2024.xlsx
+++ b/2023/scotland_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.63</v>
+        <v>1.74</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5.18</v>
+        <v>1.53</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.27</v>
+        <v>4.41</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.81</v>
+        <v>3.93</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>1.59</v>
+        <v>5.65</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-hamilton/js7Aa1Li/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-annan/YPbReJKG/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>3</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Annan</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.74</v>
+        <v>2.64</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.53</v>
+        <v>2.41</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.66</v>
+        <v>3.24</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,32 +1624,32 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.41</v>
+        <v>3.52</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
+          <t>19/08/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>17/08/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
           <t>19/08/2023 15:59</t>
         </is>
       </c>
-      <c r="R13" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>17/08/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T13" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>19/08/2023 15:59</t>
-        </is>
-      </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-annan/YPbReJKG/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-cove-rangers/KMfNda5A/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.64</v>
+        <v>2.55</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.41</v>
+        <v>2.53</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 15:37</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.24</v>
+        <v>3.15</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.52</v>
+        <v>3.37</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>19/08/2023 15:50</t>
+          <t>19/08/2023 15:37</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.41</v>
+        <v>2.55</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.78</v>
+        <v>2.73</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 15:37</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-cove-rangers/KMfNda5A/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-alloa/xb5Icuj4/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>2.55</v>
+        <v>3.63</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.53</v>
+        <v>5.18</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:37</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.15</v>
+        <v>3.63</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.37</v>
+        <v>4.27</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:37</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.55</v>
+        <v>1.81</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.73</v>
+        <v>1.59</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:37</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-alloa/xb5Icuj4/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-hamilton/js7Aa1Li/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.54</v>
+        <v>2.09</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.39</v>
+        <v>2.03</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4.1</v>
+        <v>3.38</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4.94</v>
+        <v>3.64</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>4.8</v>
+        <v>3.05</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>7.35</v>
+        <v>3.44</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-montrose/0vF7ykZ1/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-edinburgh-city/4CLbwB4k/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.14</v>
+        <v>1.39</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.69</v>
+        <v>4.94</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.89</v>
+        <v>4.8</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.13</v>
+        <v>7.35</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-kelty-hearts/Es3k0YB2/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-montrose/0vF7ykZ1/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.09</v>
+        <v>1.75</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.03</v>
+        <v>2.14</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.38</v>
+        <v>3.65</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.64</v>
+        <v>3.69</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.05</v>
+        <v>3.89</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.44</v>
+        <v>3.13</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-edinburgh-city/4CLbwB4k/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-kelty-hearts/Es3k0YB2/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:49</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.87</v>
+        <v>4.07</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>4.17</v>
+        <v>4.28</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:55</t>
+          <t>02/09/2023 15:49</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>4.04</v>
+        <v>5.19</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.97</v>
+        <v>3.64</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-montrose/G6a6djBR/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-annan/nXf2cWeL/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>1.51</v>
+        <v>5.07</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.82</v>
+        <v>12.18</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:49</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.07</v>
+        <v>4.03</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>4.28</v>
+        <v>6.4</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:49</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>5.19</v>
+        <v>1.52</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.64</v>
+        <v>1.23</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-annan/nXf2cWeL/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-falkirk/8tdbbCtF/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Falkirk</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>2</v>
-      </c>
       <c r="J24" t="n">
-        <v>5.07</v>
+        <v>2.58</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>12.18</v>
+        <v>2.82</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.03</v>
+        <v>3.29</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>6.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:34</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>1.52</v>
+        <v>2.45</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>1.23</v>
+        <v>2.45</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-falkirk/8tdbbCtF/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-cove-rangers/QH6gahR8/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>2.58</v>
+        <v>1.68</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.82</v>
+        <v>1.62</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.29</v>
+        <v>3.87</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>4.17</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:34</t>
+          <t>02/09/2023 15:55</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.45</v>
+        <v>4.04</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.45</v>
+        <v>4.97</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-cove-rangers/QH6gahR8/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-montrose/G6a6djBR/</t>
         </is>
       </c>
     </row>
@@ -4226,6 +4226,374 @@
       <c r="V41" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/scotland/league-one/stirling-cove-rangers/KEM6PluE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Annan</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>07/10/2023 03:06</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:03</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>07/10/2023 03:06</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-annan/b5LAO8fK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Edinburgh City</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:35</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:36</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:36</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-kelty-hearts/GtGFNS9Q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Montrose</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Alloa</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:03</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:03</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:03</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-alloa/CC1oI6Xm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Queen of South</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Stirling</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:41</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:41</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:41</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-stirling/QF5kHQnf/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-one_2023-2024.xlsx
+++ b/2023/scotland_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.55</v>
+        <v>3.63</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.53</v>
+        <v>5.18</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>19/08/2023 15:37</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.15</v>
+        <v>3.63</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.37</v>
+        <v>4.27</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>19/08/2023 15:37</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.55</v>
+        <v>1.81</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.73</v>
+        <v>1.59</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>19/08/2023 15:37</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-alloa/xb5Icuj4/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-hamilton/js7Aa1Li/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.63</v>
+        <v>2.55</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5.18</v>
+        <v>2.53</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:37</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.63</v>
+        <v>3.15</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.27</v>
+        <v>3.37</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:37</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.81</v>
+        <v>2.55</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.59</v>
+        <v>2.73</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:37</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-hamilton/js7Aa1Li/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-alloa/xb5Icuj4/</t>
         </is>
       </c>
     </row>
@@ -4594,6 +4594,98 @@
       <c r="V45" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-stirling/QF5kHQnf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45206.77083333334</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:22</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:22</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:22</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-hamilton/Ik2sJnIs/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-one_2023-2024.xlsx
+++ b/2023/scotland_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
         <v>3</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Annan</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
       <c r="J12" t="n">
-        <v>1.74</v>
+        <v>2.64</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.53</v>
+        <v>2.41</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.66</v>
+        <v>3.24</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,32 +1532,32 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.41</v>
+        <v>3.52</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
+          <t>19/08/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>17/08/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
           <t>19/08/2023 15:59</t>
         </is>
       </c>
-      <c r="R12" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>17/08/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T12" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>19/08/2023 15:59</t>
-        </is>
-      </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-annan/YPbReJKG/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-cove-rangers/KMfNda5A/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.64</v>
+        <v>2.55</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.41</v>
+        <v>2.53</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 15:37</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.24</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.52</v>
+        <v>3.37</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>19/08/2023 15:50</t>
+          <t>19/08/2023 15:37</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.41</v>
+        <v>2.55</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.78</v>
+        <v>2.73</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 15:37</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-cove-rangers/KMfNda5A/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-alloa/xb5Icuj4/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.55</v>
+        <v>1.74</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.53</v>
+        <v>1.53</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:37</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.15</v>
+        <v>3.66</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.37</v>
+        <v>4.41</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:37</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.55</v>
+        <v>3.93</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.73</v>
+        <v>5.65</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:37</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-alloa/xb5Icuj4/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-annan/YPbReJKG/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/09/2023 11:55</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.86</v>
+        <v>4.5</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>4.2</v>
+        <v>5.44</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/09/2023 14:03</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.12</v>
+        <v>5.77</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>4.73</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/09/2023 11:55</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-edinburgh-city/YLtC37If/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-montrose/CCuG2RX0/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,14 +3985,14 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.42</v>
+        <v>2.45</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.31</v>
+        <v>2.59</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,32 +4016,32 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>5.44</v>
+        <v>3.72</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
+          <t>30/09/2023 14:23</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>28/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
           <t>30/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R39" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>28/09/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T39" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-montrose/CCuG2RX0/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-queen-of-south/6BYO052D/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.45</v>
+        <v>1.67</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.59</v>
+        <v>1.63</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 11:55</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.3</v>
+        <v>3.86</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.72</v>
+        <v>4.2</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>30/09/2023 14:23</t>
+          <t>30/09/2023 14:03</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.56</v>
+        <v>4.12</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.49</v>
+        <v>4.73</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 11:55</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-queen-of-south/6BYO052D/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-edinburgh-city/YLtC37If/</t>
         </is>
       </c>
     </row>
@@ -4686,6 +4686,374 @@
       <c r="V46" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-hamilton/Ik2sJnIs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Edinburgh City</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:35</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:35</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:35</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-edinburgh-city/Yoh6DrnJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Alloa</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:54</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:03</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-kelty-hearts/8vefGp20/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Annan</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Queen of South</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:17</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-queen-of-south/nVgbF4H6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Stirling</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-falkirk/ziWlxSOJ/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-one_2023-2024.xlsx
+++ b/2023/scotland_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,71 +1033,71 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.48</v>
+        <v>2.21</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>11/08/2023 23:52</t>
+          <t>11/08/2023 04:12</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:41</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.56</v>
+        <v>3.32</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>11/08/2023 23:52</t>
+          <t>11/08/2023 04:12</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>12/08/2023 15:43</t>
+          <t>12/08/2023 14:03</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.01</v>
+        <v>2.96</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>11/08/2023 23:52</t>
+          <t>11/08/2023 04:12</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.44</v>
+        <v>2.37</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:41</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-hamilton/Cj860s6o/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-montrose/v3whsK5N/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Stirling</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Montrose</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
       <c r="J9" t="n">
-        <v>2.21</v>
+        <v>2.37</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>11/08/2023 23:50</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.84</v>
+        <v>2.42</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>12/08/2023 15:41</t>
+          <t>12/08/2023 15:53</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.32</v>
+        <v>3.46</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>11/08/2023 23:50</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.52</v>
+        <v>3.46</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>12/08/2023 14:03</t>
+          <t>12/08/2023 15:53</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.96</v>
+        <v>2.83</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>11/08/2023 23:50</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.37</v>
+        <v>2.81</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>12/08/2023 15:41</t>
+          <t>12/08/2023 15:53</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-montrose/v3whsK5N/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-stirling/0Cvlr0jH/</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.37</v>
+        <v>3.16</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.42</v>
+        <v>3.54</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>12/08/2023 15:53</t>
+          <t>12/08/2023 14:04</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.46</v>
+        <v>3.51</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.46</v>
+        <v>3.79</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>12/08/2023 15:53</t>
+          <t>12/08/2023 14:04</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.83</v>
+        <v>2.16</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.81</v>
+        <v>1.95</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>12/08/2023 15:53</t>
+          <t>12/08/2023 14:04</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-stirling/0Cvlr0jH/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-queen-of-south/AoUNybTp/</t>
         </is>
       </c>
     </row>
@@ -1401,71 +1401,71 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.16</v>
+        <v>3.48</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>11/08/2023 23:50</t>
+          <t>11/08/2023 23:52</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3.54</v>
+        <v>2.79</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>12/08/2023 14:04</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.51</v>
+        <v>3.56</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>11/08/2023 23:50</t>
+          <t>11/08/2023 23:52</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.79</v>
+        <v>3.46</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>12/08/2023 14:04</t>
+          <t>12/08/2023 15:43</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.16</v>
+        <v>2.01</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>11/08/2023 23:50</t>
+          <t>11/08/2023 23:52</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>1.95</v>
+        <v>2.44</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>12/08/2023 14:04</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-queen-of-south/AoUNybTp/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-hamilton/Cj860s6o/</t>
         </is>
       </c>
     </row>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.64</v>
+        <v>1.74</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,39 +1516,39 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.41</v>
+        <v>1.53</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
+          <t>19/08/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>17/08/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>19/08/2023 15:59</t>
         </is>
       </c>
-      <c r="N12" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="R12" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>17/08/2023 09:13</t>
         </is>
       </c>
-      <c r="P12" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>19/08/2023 15:50</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>17/08/2023 09:13</t>
-        </is>
-      </c>
       <c r="T12" t="n">
-        <v>2.78</v>
+        <v>5.65</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-cove-rangers/KMfNda5A/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-annan/YPbReJKG/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.55</v>
+        <v>2.64</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.53</v>
+        <v>2.41</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>19/08/2023 15:37</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.15</v>
+        <v>3.24</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.37</v>
+        <v>3.52</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>19/08/2023 15:37</t>
+          <t>19/08/2023 15:50</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.55</v>
+        <v>2.41</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.73</v>
+        <v>2.78</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>19/08/2023 15:37</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-alloa/xb5Icuj4/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-cove-rangers/KMfNda5A/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.63</v>
+        <v>2.55</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5.18</v>
+        <v>2.53</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:37</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.63</v>
+        <v>3.15</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.27</v>
+        <v>3.37</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:37</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.81</v>
+        <v>2.55</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1.59</v>
+        <v>2.73</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:37</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-hamilton/js7Aa1Li/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-alloa/xb5Icuj4/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>3</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Annan</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
       <c r="J15" t="n">
-        <v>1.74</v>
+        <v>3.63</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.53</v>
+        <v>5.18</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.41</v>
+        <v>4.27</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.93</v>
+        <v>1.81</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.65</v>
+        <v>1.59</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-annan/YPbReJKG/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-hamilton/js7Aa1Li/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.09</v>
+        <v>1.75</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.03</v>
+        <v>2.14</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.38</v>
+        <v>3.65</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.64</v>
+        <v>3.69</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.05</v>
+        <v>3.89</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.44</v>
+        <v>3.13</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-edinburgh-city/4CLbwB4k/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-kelty-hearts/Es3k0YB2/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.91</v>
+        <v>2.09</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.26</v>
+        <v>2.03</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.59</v>
+        <v>3.38</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.72</v>
+        <v>3.64</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>26/08/2023 15:48</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.34</v>
+        <v>3.05</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.88</v>
+        <v>3.44</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-queen-of-south/MmG3xVJe/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-edinburgh-city/4CLbwB4k/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.54</v>
+        <v>1.91</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.39</v>
+        <v>2.26</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>4.1</v>
+        <v>3.59</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4.94</v>
+        <v>3.72</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:48</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>4.8</v>
+        <v>3.34</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>7.35</v>
+        <v>2.88</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-montrose/0vF7ykZ1/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-queen-of-south/MmG3xVJe/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.14</v>
+        <v>1.39</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.69</v>
+        <v>4.94</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.89</v>
+        <v>4.8</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.13</v>
+        <v>7.35</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-kelty-hearts/Es3k0YB2/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-montrose/0vF7ykZ1/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,14 +2421,14 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.51</v>
+        <v>2.58</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.82</v>
+        <v>2.82</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:49</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>4.07</v>
+        <v>3.29</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>4.28</v>
+        <v>3.4</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:49</t>
+          <t>02/09/2023 15:34</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>5.19</v>
+        <v>2.45</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.64</v>
+        <v>2.45</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-annan/nXf2cWeL/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-cove-rangers/QH6gahR8/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>5.07</v>
+        <v>1.68</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>12.18</v>
+        <v>1.62</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.03</v>
+        <v>3.87</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,32 +2544,32 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>6.4</v>
+        <v>4.17</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
+          <t>02/09/2023 15:55</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>31/08/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
           <t>02/09/2023 15:58</t>
         </is>
       </c>
-      <c r="R23" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>31/08/2023 09:12</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>02/09/2023 15:58</t>
-        </is>
-      </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-falkirk/8tdbbCtF/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-montrose/G6a6djBR/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.58</v>
+        <v>1.51</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.82</v>
+        <v>1.82</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:49</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.29</v>
+        <v>4.07</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.4</v>
+        <v>4.28</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:34</t>
+          <t>02/09/2023 15:49</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.45</v>
+        <v>5.19</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.45</v>
+        <v>3.64</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-cove-rangers/QH6gahR8/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-annan/nXf2cWeL/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
         <v>2</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Montrose</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
       <c r="J25" t="n">
-        <v>1.68</v>
+        <v>5.07</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.62</v>
+        <v>12.18</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.87</v>
+        <v>4.03</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>4.17</v>
+        <v>6.4</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:55</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.04</v>
+        <v>1.52</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.97</v>
+        <v>1.23</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-montrose/G6a6djBR/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-falkirk/8tdbbCtF/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>16/09/2023 15:39</t>
+          <t>16/09/2023 13:53</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.91</v>
+        <v>4.01</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.12</v>
+        <v>4.39</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>16/09/2023 15:50</t>
+          <t>16/09/2023 14:05</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>4.63</v>
+        <v>5.02</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>5.26</v>
+        <v>6.07</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>16/09/2023 15:39</t>
+          <t>16/09/2023 13:53</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-edinburgh-city/YcbPCBe8/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-alloa/newklSI7/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.53</v>
+        <v>1.74</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>16/09/2023 13:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4.01</v>
+        <v>3.72</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.39</v>
+        <v>4.43</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>16/09/2023 14:05</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>5.02</v>
+        <v>3.85</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>6.07</v>
+        <v>5.15</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>16/09/2023 13:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-alloa/newklSI7/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-queen-of-south/84vok831/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.74</v>
+        <v>1.94</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:09</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.72</v>
+        <v>3.46</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.43</v>
+        <v>3.79</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:46</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.85</v>
+        <v>3.36</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>5.15</v>
+        <v>3.83</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:46</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-queen-of-south/84vok831/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-kelty-hearts/Esusjlle/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.94</v>
+        <v>2.56</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.88</v>
+        <v>3.06</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:09</t>
+          <t>16/09/2023 15:51</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.46</v>
+        <v>3.27</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.79</v>
+        <v>3.55</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:46</t>
+          <t>16/09/2023 15:51</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.36</v>
+        <v>2.47</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.83</v>
+        <v>2.22</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:46</t>
+          <t>16/09/2023 15:51</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-kelty-hearts/Esusjlle/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-stirling/0vywiUYl/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.56</v>
+        <v>1.58</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3.06</v>
+        <v>1.6</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:51</t>
+          <t>16/09/2023 15:39</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.27</v>
+        <v>3.91</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.55</v>
+        <v>4.12</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:51</t>
+          <t>16/09/2023 15:50</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.47</v>
+        <v>4.63</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.22</v>
+        <v>5.26</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:51</t>
+          <t>16/09/2023 15:39</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-stirling/0vywiUYl/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-edinburgh-city/YcbPCBe8/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 11:55</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>4.5</v>
+        <v>3.86</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>5.44</v>
+        <v>4.2</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 14:03</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>5.77</v>
+        <v>4.12</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>9.199999999999999</v>
+        <v>4.73</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 11:55</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-montrose/CCuG2RX0/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-edinburgh-city/YLtC37If/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,14 +3985,14 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>2.45</v>
+        <v>1.42</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,39 +4000,39 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.59</v>
+        <v>1.31</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
+          <t>30/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>28/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
           <t>30/09/2023 15:59</t>
         </is>
       </c>
-      <c r="N39" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O39" t="inlineStr">
+      <c r="R39" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="S39" t="inlineStr">
         <is>
           <t>28/09/2023 08:13</t>
         </is>
       </c>
-      <c r="P39" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>30/09/2023 14:23</t>
-        </is>
-      </c>
-      <c r="R39" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>28/09/2023 08:13</t>
-        </is>
-      </c>
       <c r="T39" t="n">
-        <v>2.49</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-queen-of-south/6BYO052D/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-montrose/CCuG2RX0/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.67</v>
+        <v>2.45</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.63</v>
+        <v>2.59</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>30/09/2023 11:55</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.86</v>
+        <v>3.3</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.2</v>
+        <v>3.72</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>30/09/2023 14:03</t>
+          <t>30/09/2023 14:23</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.12</v>
+        <v>2.56</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.73</v>
+        <v>2.49</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>30/09/2023 11:55</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-edinburgh-city/YLtC37If/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-queen-of-south/6BYO052D/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.6</v>
+        <v>2.11</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>07/10/2023 03:06</t>
+          <t>07/10/2023 15:41</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.83</v>
+        <v>3.49</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.19</v>
+        <v>3.6</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>07/10/2023 14:03</t>
+          <t>07/10/2023 15:41</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.08</v>
+        <v>3.27</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.6</v>
+        <v>3.26</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>07/10/2023 03:06</t>
+          <t>07/10/2023 15:41</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-annan/b5LAO8fK/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-stirling/QF5kHQnf/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Alloa</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Kelty Hearts</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
       <c r="J43" t="n">
-        <v>3.09</v>
+        <v>1.96</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.64</v>
+        <v>2.02</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:35</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.03</v>
+        <v>3.63</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.05</v>
+        <v>3.28</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.87</v>
+        <v>3.48</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-kelty-hearts/GtGFNS9Q/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-alloa/CC1oI6Xm/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Annan</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>2</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Alloa</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
       <c r="J44" t="n">
-        <v>1.96</v>
+        <v>1.68</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.02</v>
+        <v>1.6</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 03:06</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.48</v>
+        <v>3.83</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.63</v>
+        <v>4.19</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 14:03</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.28</v>
+        <v>4.08</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.48</v>
+        <v>4.6</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 03:06</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-alloa/CC1oI6Xm/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-annan/b5LAO8fK/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>1.96</v>
+        <v>3.09</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.11</v>
+        <v>3.64</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>07/10/2023 15:41</t>
+          <t>07/10/2023 15:35</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.6</v>
+        <v>4.03</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>07/10/2023 15:41</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.27</v>
+        <v>2.05</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.26</v>
+        <v>1.87</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>07/10/2023 15:41</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-stirling/QF5kHQnf/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-kelty-hearts/GtGFNS9Q/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.19</v>
+        <v>2.32</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.17</v>
+        <v>2.57</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:35</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>6.55</v>
+        <v>3.5</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>7.9</v>
+        <v>3.66</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:35</t>
+          <t>21/10/2023 14:03</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>9.529999999999999</v>
+        <v>2.66</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>13.65</v>
+        <v>2.53</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:35</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-edinburgh-city/Yoh6DrnJ/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-kelty-hearts/8vefGp20/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2.32</v>
+        <v>2.63</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.66</v>
+        <v>3.69</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>21/10/2023 14:03</t>
+          <t>21/10/2023 15:17</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.66</v>
+        <v>2.37</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-kelty-hearts/8vefGp20/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-queen-of-south/nVgbF4H6/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.63</v>
+        <v>1.19</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.64</v>
+        <v>1.17</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:35</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.46</v>
+        <v>6.55</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.69</v>
+        <v>7.9</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>21/10/2023 15:17</t>
+          <t>21/10/2023 15:35</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.37</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.45</v>
+        <v>13.65</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:35</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-queen-of-south/nVgbF4H6/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-edinburgh-city/Yoh6DrnJ/</t>
         </is>
       </c>
     </row>
@@ -5054,6 +5054,466 @@
       <c r="V50" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/scotland/league-one/stirling-falkirk/ziWlxSOJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Edinburgh City</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Annan</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>26/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:41</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>26/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>26/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:41</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-annan/lfzgynvQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Alloa</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>26/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:33</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>26/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>26/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-alloa/6ZMKW5ns/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Stirling</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>26/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>26/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>26/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-stirling/pQLOVP1m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Queen of South</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>27/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>27/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:34</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>27/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-cove-rangers/thFXT3Wa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45227.77083333334</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Montrose</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>26/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:01</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>26/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:01</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>26/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:25</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-hamilton/21GTUqHg/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-one_2023-2024.xlsx
+++ b/2023/scotland_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,71 +573,71 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>04/08/2023 16:33</t>
+          <t>04/08/2023 16:32</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:19</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4.63</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>04/08/2023 16:33</t>
+          <t>04/08/2023 16:32</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.89</v>
+        <v>5.09</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:19</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>5.04</v>
+        <v>6.08</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>04/08/2023 16:33</t>
+          <t>04/08/2023 16:32</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>4.08</v>
+        <v>7.38</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:19</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-edinburgh-city/dE0H0tig/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-annan/pzXbrayP/</t>
         </is>
       </c>
     </row>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>03/08/2023 09:13</t>
+          <t>04/08/2023 16:33</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:48</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>03/08/2023 09:13</t>
+          <t>04/08/2023 16:33</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.61</v>
+        <v>3.89</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:48</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.75</v>
+        <v>5.04</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>03/08/2023 09:13</t>
+          <t>04/08/2023 16:33</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.68</v>
+        <v>4.08</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:48</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-alloa/IN1D1Mym/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-edinburgh-city/dE0H0tig/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>04/08/2023 04:12</t>
+          <t>03/08/2023 09:13</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:48</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>04/08/2023 04:12</t>
+          <t>03/08/2023 09:13</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.8</v>
+        <v>3.61</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:48</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.44</v>
+        <v>3.75</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>04/08/2023 04:12</t>
+          <t>03/08/2023 09:13</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3.29</v>
+        <v>3.68</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:48</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-kelty-hearts/0n7822Mt/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-alloa/IN1D1Mym/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>04/08/2023 16:33</t>
+          <t>04/08/2023 04:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.77</v>
+        <v>3.35</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>04/08/2023 16:33</t>
+          <t>04/08/2023 04:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.76</v>
+        <v>3.8</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.95</v>
+        <v>3.44</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>04/08/2023 16:33</t>
+          <t>04/08/2023 04:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.75</v>
+        <v>3.29</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-cove-rangers/bwLt7rEP/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-kelty-hearts/0n7822Mt/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.46</v>
+        <v>1.83</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>04/08/2023 16:32</t>
+          <t>04/08/2023 16:33</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.38</v>
+        <v>1.9</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:19</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.63</v>
+        <v>3.77</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>04/08/2023 16:32</t>
+          <t>04/08/2023 16:33</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>5.09</v>
+        <v>3.76</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:19</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>6.08</v>
+        <v>3.95</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>04/08/2023 16:32</t>
+          <t>04/08/2023 16:33</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>7.38</v>
+        <v>3.75</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:19</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-annan/pzXbrayP/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-cove-rangers/bwLt7rEP/</t>
         </is>
       </c>
     </row>
@@ -1033,71 +1033,71 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.21</v>
+        <v>3.57</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>11/08/2023 23:50</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.84</v>
+        <v>3.92</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>12/08/2023 15:41</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.32</v>
+        <v>3.53</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>11/08/2023 23:50</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.52</v>
+        <v>3.73</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>12/08/2023 14:03</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.96</v>
+        <v>2</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>11/08/2023 23:50</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.37</v>
+        <v>1.87</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>12/08/2023 15:41</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-montrose/v3whsK5N/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-falkirk/YPxdtvLT/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.57</v>
+        <v>2.21</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>11/08/2023 23:50</t>
+          <t>11/08/2023 04:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3.92</v>
+        <v>2.84</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:41</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.53</v>
+        <v>3.32</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>11/08/2023 23:50</t>
+          <t>11/08/2023 04:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.73</v>
+        <v>3.52</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 14:03</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>2.96</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>11/08/2023 23:50</t>
+          <t>11/08/2023 04:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.87</v>
+        <v>2.37</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:41</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-falkirk/YPxdtvLT/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-montrose/v3whsK5N/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.96</v>
+        <v>1.68</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.11</v>
+        <v>1.6</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>07/10/2023 15:41</t>
+          <t>07/10/2023 03:06</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.49</v>
+        <v>3.83</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.6</v>
+        <v>4.19</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>07/10/2023 15:41</t>
+          <t>07/10/2023 14:03</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.27</v>
+        <v>4.08</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.26</v>
+        <v>4.6</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>07/10/2023 15:41</t>
+          <t>07/10/2023 03:06</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-stirling/QF5kHQnf/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-annan/b5LAO8fK/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>1.96</v>
+        <v>3.09</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.02</v>
+        <v>3.64</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:35</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.48</v>
+        <v>3.45</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.63</v>
+        <v>4.03</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.28</v>
+        <v>2.05</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.48</v>
+        <v>1.87</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-alloa/CC1oI6Xm/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-kelty-hearts/GtGFNS9Q/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.6</v>
+        <v>2.02</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>07/10/2023 03:06</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.83</v>
+        <v>3.48</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.19</v>
+        <v>3.63</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>07/10/2023 14:03</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.08</v>
+        <v>3.28</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.6</v>
+        <v>3.48</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>07/10/2023 03:06</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-annan/b5LAO8fK/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-alloa/CC1oI6Xm/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Stirling</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Kelty Hearts</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>4</v>
-      </c>
       <c r="J45" t="n">
-        <v>3.09</v>
+        <v>1.96</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.64</v>
+        <v>2.11</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>07/10/2023 15:35</t>
+          <t>07/10/2023 15:41</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.45</v>
+        <v>3.49</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.03</v>
+        <v>3.6</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:41</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.05</v>
+        <v>3.27</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.87</v>
+        <v>3.26</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:41</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-kelty-hearts/GtGFNS9Q/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-stirling/QF5kHQnf/</t>
         </is>
       </c>
     </row>
@@ -5514,6 +5514,466 @@
       <c r="V55" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/scotland/league-one/montrose-hamilton/21GTUqHg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Annan</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-kelty-hearts/zFEyTNo6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:18</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:06</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:18</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-hamilton/YaXvSs1C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Edinburgh City</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Montrose</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>5</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:22</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:34</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:34</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-montrose/GOMqR1GI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Queen of South</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:36</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:36</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:36</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-falkirk/hlpD9Zpo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Stirling</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Alloa</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-alloa/t4weYINo/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-one_2023-2024.xlsx
+++ b/2023/scotland_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,71 +573,71 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.46</v>
+        <v>1.83</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>04/08/2023 16:32</t>
+          <t>04/08/2023 16:33</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.38</v>
+        <v>1.9</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:19</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>4.63</v>
+        <v>3.77</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>04/08/2023 16:32</t>
+          <t>04/08/2023 16:33</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>5.09</v>
+        <v>3.76</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:19</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>6.08</v>
+        <v>3.95</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>04/08/2023 16:32</t>
+          <t>04/08/2023 16:33</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>7.38</v>
+        <v>3.75</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:19</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-annan/pzXbrayP/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-cove-rangers/bwLt7rEP/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.83</v>
+        <v>1.46</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>04/08/2023 16:33</t>
+          <t>04/08/2023 16:32</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.9</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:19</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.77</v>
+        <v>4.63</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>04/08/2023 16:33</t>
+          <t>04/08/2023 16:32</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.76</v>
+        <v>5.09</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:19</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.95</v>
+        <v>6.08</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>04/08/2023 16:33</t>
+          <t>04/08/2023 16:32</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.75</v>
+        <v>7.38</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:19</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-cove-rangers/bwLt7rEP/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-annan/pzXbrayP/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,14 +3433,14 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.62</v>
+        <v>2.07</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>3.18</v>
+        <v>2.06</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>23/09/2023 15:36</t>
+          <t>23/09/2023 11:40</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.26</v>
+        <v>3.4</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.61</v>
+        <v>3.45</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 14:03</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.42</v>
+        <v>3.09</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.15</v>
+        <v>3.49</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>23/09/2023 15:36</t>
+          <t>23/09/2023 11:40</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-hamilton/4nx84m3l/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-stirling/Qew45Tmr/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>2.07</v>
+        <v>3.38</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.06</v>
+        <v>4.6</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>23/09/2023 11:40</t>
+          <t>23/09/2023 15:40</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.4</v>
+        <v>3.52</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.45</v>
+        <v>4.38</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>23/09/2023 14:03</t>
+          <t>23/09/2023 15:40</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.09</v>
+        <v>1.92</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.49</v>
+        <v>1.63</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>23/09/2023 11:40</t>
+          <t>23/09/2023 15:40</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-stirling/Qew45Tmr/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-cove-rangers/6BdXAkQK/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>3.38</v>
+        <v>2.62</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4.6</v>
+        <v>3.18</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>23/09/2023 15:40</t>
+          <t>23/09/2023 15:36</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.52</v>
+        <v>3.26</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>4.38</v>
+        <v>3.61</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>23/09/2023 15:40</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>1.92</v>
+        <v>2.42</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>1.63</v>
+        <v>2.15</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>23/09/2023 15:40</t>
+          <t>23/09/2023 15:36</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-cove-rangers/6BdXAkQK/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-hamilton/4nx84m3l/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.32</v>
+        <v>1.19</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.57</v>
+        <v>1.17</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:35</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.5</v>
+        <v>6.55</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.66</v>
+        <v>7.9</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>21/10/2023 14:03</t>
+          <t>21/10/2023 15:35</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.66</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.53</v>
+        <v>13.65</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:35</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-kelty-hearts/8vefGp20/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-edinburgh-city/Yoh6DrnJ/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>2.63</v>
+        <v>5.43</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.64</v>
+        <v>6.82</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.46</v>
+        <v>4.14</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.69</v>
+        <v>4.59</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>21/10/2023 15:17</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.37</v>
+        <v>1.5</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.45</v>
+        <v>1.44</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-queen-of-south/nVgbF4H6/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-falkirk/ziWlxSOJ/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.19</v>
+        <v>2.32</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.17</v>
+        <v>2.57</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>21/10/2023 15:35</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>6.55</v>
+        <v>3.5</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>7.9</v>
+        <v>3.66</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>21/10/2023 15:35</t>
+          <t>21/10/2023 14:03</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>9.529999999999999</v>
+        <v>2.66</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>13.65</v>
+        <v>2.53</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>21/10/2023 15:35</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-edinburgh-city/Yoh6DrnJ/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-kelty-hearts/8vefGp20/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Queen of South</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Falkirk</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
       <c r="J50" t="n">
-        <v>5.43</v>
+        <v>2.63</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>6.82</v>
+        <v>2.64</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.14</v>
+        <v>3.46</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.59</v>
+        <v>3.69</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:17</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.5</v>
+        <v>2.37</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.44</v>
+        <v>2.45</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-falkirk/ziWlxSOJ/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-queen-of-south/nVgbF4H6/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>2.5</v>
+        <v>2.09</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.33</v>
+        <v>3.35</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.69</v>
+        <v>3.16</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.5</v>
+        <v>3.08</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.64</v>
+        <v>3.43</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-kelty-hearts/zFEyTNo6/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-alloa/t4weYINo/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>3.12</v>
+        <v>2.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4.01</v>
+        <v>2.45</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>04/11/2023 13:18</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.46</v>
+        <v>3.33</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.72</v>
+        <v>3.69</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>04/11/2023 14:06</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.04</v>
+        <v>2.5</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>1.84</v>
+        <v>2.64</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>04/11/2023 13:18</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-hamilton/YaXvSs1C/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-kelty-hearts/zFEyTNo6/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>3.27</v>
+        <v>3.12</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3.05</v>
+        <v>4.01</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>04/11/2023 14:22</t>
+          <t>04/11/2023 13:18</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.85</v>
+        <v>3.72</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>04/11/2023 15:34</t>
+          <t>04/11/2023 14:06</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.13</v>
+        <v>1.84</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>04/11/2023 15:34</t>
+          <t>04/11/2023 13:18</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-montrose/GOMqR1GI/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-hamilton/YaXvSs1C/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J59" t="n">
-        <v>5.39</v>
+        <v>3.27</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>8.18</v>
+        <v>3.05</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>04/11/2023 15:36</t>
+          <t>04/11/2023 14:22</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.14</v>
+        <v>3.59</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>5.09</v>
+        <v>3.85</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>04/11/2023 15:36</t>
+          <t>04/11/2023 15:34</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.5</v>
+        <v>1.93</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>1.36</v>
+        <v>2.13</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>04/11/2023 15:36</t>
+          <t>04/11/2023 15:34</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-falkirk/hlpD9Zpo/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-montrose/GOMqR1GI/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,531 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>Queen of South</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:36</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:36</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:36</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-falkirk/hlpD9Zpo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>5</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
           <t>Stirling</t>
         </is>
       </c>
-      <c r="G60" t="n">
+      <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="J61" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-stirling/GMV7VG74/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-cove-rangers/AqVBUzNA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F63" t="inlineStr">
         <is>
           <t>Alloa</t>
         </is>
       </c>
-      <c r="I60" t="n">
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Queen of South</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:20</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-queen-of-south/KfxaXxwh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
         <v>2</v>
       </c>
-      <c r="J60" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>02/11/2023 08:13</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>04/11/2023 15:54</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>02/11/2023 08:13</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>04/11/2023 15:54</t>
-        </is>
-      </c>
-      <c r="R60" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>02/11/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T60" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>04/11/2023 15:54</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-alloa/t4weYINo/</t>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Edinburgh City</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>10/11/2023 16:03</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:46</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-edinburgh-city/2JR3Wdhb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Montrose</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Annan</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-annan/lzUFTfxH/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-one_2023-2024.xlsx
+++ b/2023/scotland_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,71 +573,71 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>04/08/2023 16:33</t>
+          <t>04/08/2023 04:12</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.77</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>04/08/2023 16:33</t>
+          <t>04/08/2023 04:12</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.76</v>
+        <v>3.8</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.95</v>
+        <v>3.44</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>04/08/2023 16:33</t>
+          <t>04/08/2023 04:12</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>3.75</v>
+        <v>3.29</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-cove-rangers/bwLt7rEP/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-kelty-hearts/0n7822Mt/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Kelty Hearts</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
       <c r="J5" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>04/08/2023 04:12</t>
+          <t>04/08/2023 16:33</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.35</v>
+        <v>3.77</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>04/08/2023 04:12</t>
+          <t>04/08/2023 16:33</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.8</v>
+        <v>3.76</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.44</v>
+        <v>3.95</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>04/08/2023 04:12</t>
+          <t>04/08/2023 16:33</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.29</v>
+        <v>3.75</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-kelty-hearts/0n7822Mt/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-cove-rangers/bwLt7rEP/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>1.19</v>
+        <v>5.43</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.17</v>
+        <v>6.82</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:35</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>6.55</v>
+        <v>4.14</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>7.9</v>
+        <v>4.59</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:35</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>9.529999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>13.65</v>
+        <v>1.44</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:35</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-edinburgh-city/Yoh6DrnJ/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-falkirk/ziWlxSOJ/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>5.43</v>
+        <v>1.19</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>6.82</v>
+        <v>1.17</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:35</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.14</v>
+        <v>6.55</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.59</v>
+        <v>7.9</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:35</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.5</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.44</v>
+        <v>13.65</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:35</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-falkirk/ziWlxSOJ/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-edinburgh-city/Yoh6DrnJ/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.5</v>
+        <v>5.39</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.45</v>
+        <v>8.18</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:36</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.33</v>
+        <v>4.14</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.69</v>
+        <v>5.09</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:36</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2.64</v>
+        <v>1.36</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:36</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-kelty-hearts/zFEyTNo6/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-falkirk/hlpD9Zpo/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>3.27</v>
+        <v>2.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.05</v>
+        <v>2.45</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>04/11/2023 14:22</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.59</v>
+        <v>3.33</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.85</v>
+        <v>3.69</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>04/11/2023 15:34</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.93</v>
+        <v>2.5</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.13</v>
+        <v>2.64</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>04/11/2023 15:34</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-montrose/GOMqR1GI/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-kelty-hearts/zFEyTNo6/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J60" t="n">
-        <v>5.39</v>
+        <v>3.27</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>8.18</v>
+        <v>3.05</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>04/11/2023 15:36</t>
+          <t>04/11/2023 14:22</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.14</v>
+        <v>3.59</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>5.09</v>
+        <v>3.85</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>04/11/2023 15:36</t>
+          <t>04/11/2023 15:34</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.5</v>
+        <v>1.93</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>1.36</v>
+        <v>2.13</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>04/11/2023 15:36</t>
+          <t>04/11/2023 15:34</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-falkirk/hlpD9Zpo/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-montrose/GOMqR1GI/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1.37</v>
+        <v>1.9</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.37</v>
+        <v>1.79</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:54</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>4.59</v>
+        <v>3.92</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>4.79</v>
+        <v>4.32</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:54</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>6.39</v>
+        <v>3.22</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>8.41</v>
+        <v>3.74</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:54</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-stirling/GMV7VG74/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-annan/lzUFTfxH/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Queen of South</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Cove Rangers</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
       <c r="J62" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
         <v>2.46</v>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O62" t="inlineStr">
         <is>
           <t>09/11/2023 09:12</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>11/11/2023 15:57</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="O62" t="inlineStr">
+      <c r="P62" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:20</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S62" t="inlineStr">
         <is>
           <t>09/11/2023 09:12</t>
         </is>
       </c>
-      <c r="P62" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>11/11/2023 15:57</t>
-        </is>
-      </c>
-      <c r="R62" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>09/11/2023 09:12</t>
-        </is>
-      </c>
       <c r="T62" t="n">
-        <v>2.24</v>
+        <v>2.72</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>11/11/2023 15:53</t>
+          <t>11/11/2023 15:49</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-cove-rangers/AqVBUzNA/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-queen-of-south/KfxaXxwh/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Edinburgh City</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>1</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Queen of South</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
       <c r="J63" t="n">
-        <v>2.41</v>
+        <v>1.14</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.46</v>
+        <v>1.09</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>11/11/2023 15:49</t>
+          <t>10/11/2023 16:03</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.29</v>
+        <v>7.57</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.52</v>
+        <v>11.04</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>11/11/2023 15:20</t>
+          <t>11/11/2023 15:46</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.62</v>
+        <v>11.46</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.72</v>
+        <v>22.57</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>11/11/2023 15:49</t>
+          <t>11/11/2023 15:46</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-queen-of-south/KfxaXxwh/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-edinburgh-city/2JR3Wdhb/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.14</v>
+        <v>1.37</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.09</v>
+        <v>1.37</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>10/11/2023 16:03</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>7.57</v>
+        <v>4.59</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>11.04</v>
+        <v>4.79</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>11/11/2023 15:46</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>11.46</v>
+        <v>6.39</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>22.57</v>
+        <v>8.41</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>11/11/2023 15:46</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-edinburgh-city/2JR3Wdhb/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-stirling/GMV7VG74/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>1.9</v>
+        <v>2.46</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.79</v>
+        <v>3.06</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>11/11/2023 15:54</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.92</v>
+        <v>3.33</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.32</v>
+        <v>3.51</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>11/11/2023 15:54</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.22</v>
+        <v>2.53</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,108 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.74</v>
+        <v>2.24</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>11/11/2023 15:54</t>
+          <t>11/11/2023 15:53</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-annan/lzUFTfxH/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-cove-rangers/AqVBUzNA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45244.86458333334</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Montrose</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>14/11/2023 20:36</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>14/11/2023 20:36</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>14/11/2023 20:36</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-montrose/feg2EOWC/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-one_2023-2024.xlsx
+++ b/2023/scotland_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,71 +573,71 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>04/08/2023 04:12</t>
+          <t>03/08/2023 09:13</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:48</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>04/08/2023 04:12</t>
+          <t>03/08/2023 09:13</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.8</v>
+        <v>3.61</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:48</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.44</v>
+        <v>3.75</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>04/08/2023 04:12</t>
+          <t>03/08/2023 09:13</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>3.29</v>
+        <v>3.68</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:48</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-kelty-hearts/0n7822Mt/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-alloa/IN1D1Mym/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>03/08/2023 09:13</t>
+          <t>04/08/2023 04:12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:48</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>03/08/2023 09:13</t>
+          <t>04/08/2023 04:12</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.61</v>
+        <v>3.8</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:48</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.75</v>
+        <v>3.44</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>03/08/2023 09:13</t>
+          <t>04/08/2023 04:12</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3.68</v>
+        <v>3.29</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:48</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-alloa/IN1D1Mym/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-kelty-hearts/0n7822Mt/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.6</v>
+        <v>2.11</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>07/10/2023 03:06</t>
+          <t>07/10/2023 15:41</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.83</v>
+        <v>3.49</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.19</v>
+        <v>3.6</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>07/10/2023 14:03</t>
+          <t>07/10/2023 15:41</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.08</v>
+        <v>3.27</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.6</v>
+        <v>3.26</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>07/10/2023 03:06</t>
+          <t>07/10/2023 15:41</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-annan/b5LAO8fK/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-stirling/QF5kHQnf/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Alloa</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Kelty Hearts</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
       <c r="J43" t="n">
-        <v>3.09</v>
+        <v>1.96</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.64</v>
+        <v>2.02</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:35</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.03</v>
+        <v>3.63</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.05</v>
+        <v>3.28</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.87</v>
+        <v>3.48</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-kelty-hearts/GtGFNS9Q/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-alloa/CC1oI6Xm/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Annan</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>2</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Alloa</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
       <c r="J44" t="n">
-        <v>1.96</v>
+        <v>1.68</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.02</v>
+        <v>1.6</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 03:06</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.48</v>
+        <v>3.83</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.63</v>
+        <v>4.19</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 14:03</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.28</v>
+        <v>4.08</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.48</v>
+        <v>4.6</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 03:06</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-alloa/CC1oI6Xm/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-annan/b5LAO8fK/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>1.96</v>
+        <v>3.09</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.11</v>
+        <v>3.64</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>07/10/2023 15:41</t>
+          <t>07/10/2023 15:35</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.6</v>
+        <v>4.03</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>07/10/2023 15:41</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.27</v>
+        <v>2.05</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.26</v>
+        <v>1.87</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>07/10/2023 15:41</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-stirling/QF5kHQnf/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-kelty-hearts/GtGFNS9Q/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>1</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Falkirk</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>2</v>
-      </c>
       <c r="J47" t="n">
-        <v>5.43</v>
+        <v>2.32</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>6.82</v>
+        <v>2.57</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.14</v>
+        <v>3.5</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.59</v>
+        <v>3.66</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 14:03</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>1.5</v>
+        <v>2.66</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>1.44</v>
+        <v>2.53</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-falkirk/ziWlxSOJ/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-kelty-hearts/8vefGp20/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.19</v>
+        <v>2.63</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.17</v>
+        <v>2.64</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>21/10/2023 15:35</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>6.55</v>
+        <v>3.46</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>7.9</v>
+        <v>3.69</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>21/10/2023 15:35</t>
+          <t>21/10/2023 15:17</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>9.529999999999999</v>
+        <v>2.37</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>13.65</v>
+        <v>2.45</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>21/10/2023 15:35</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-edinburgh-city/Yoh6DrnJ/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-queen-of-south/nVgbF4H6/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.32</v>
+        <v>1.19</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.57</v>
+        <v>1.17</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:35</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.5</v>
+        <v>6.55</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.66</v>
+        <v>7.9</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>21/10/2023 14:03</t>
+          <t>21/10/2023 15:35</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.66</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.53</v>
+        <v>13.65</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:35</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-kelty-hearts/8vefGp20/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-edinburgh-city/Yoh6DrnJ/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.63</v>
+        <v>5.43</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.64</v>
+        <v>6.82</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.46</v>
+        <v>4.14</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.69</v>
+        <v>4.59</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>21/10/2023 15:17</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.37</v>
+        <v>1.5</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.45</v>
+        <v>1.44</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-queen-of-south/nVgbF4H6/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-falkirk/ziWlxSOJ/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.94</v>
+        <v>2.37</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>26/10/2023 09:12</t>
+          <t>27/10/2023 04:13</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.12</v>
+        <v>2.39</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>28/10/2023 15:41</t>
+          <t>28/10/2023 15:43</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>26/10/2023 09:12</t>
+          <t>27/10/2023 04:13</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4.09</v>
+        <v>3.83</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:34</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.11</v>
+        <v>2.6</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>26/10/2023 09:12</t>
+          <t>27/10/2023 04:13</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.03</v>
+        <v>2.65</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>28/10/2023 15:41</t>
+          <t>28/10/2023 15:43</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-annan/lfzgynvQ/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-cove-rangers/thFXT3Wa/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1.28</v>
+        <v>2.07</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.28</v>
+        <v>2.44</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>28/10/2023 15:33</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>5.23</v>
+        <v>3.41</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>5.68</v>
+        <v>3.62</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>7.7</v>
+        <v>3.08</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>10.24</v>
+        <v>2.69</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-alloa/6ZMKW5ns/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-stirling/pQLOVP1m/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>2.07</v>
+        <v>2.94</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.44</v>
+        <v>3.12</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:41</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.41</v>
+        <v>3.48</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.62</v>
+        <v>4.09</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.08</v>
+        <v>2.11</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.69</v>
+        <v>2.03</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:41</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-stirling/pQLOVP1m/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-annan/lfzgynvQ/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Alloa</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Cove Rangers</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
       <c r="J54" t="n">
-        <v>2.37</v>
+        <v>1.28</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>27/10/2023 04:13</t>
+          <t>26/10/2023 09:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.39</v>
+        <v>1.28</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>28/10/2023 15:43</t>
+          <t>28/10/2023 15:33</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.5</v>
+        <v>5.23</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>27/10/2023 04:13</t>
+          <t>26/10/2023 09:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.83</v>
+        <v>5.68</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>28/10/2023 15:34</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.6</v>
+        <v>7.7</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>27/10/2023 04:13</t>
+          <t>26/10/2023 09:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.65</v>
+        <v>10.24</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>28/10/2023 15:43</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-cove-rangers/thFXT3Wa/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-alloa/6ZMKW5ns/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>2.09</v>
+        <v>2.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.23</v>
+        <v>2.45</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.35</v>
+        <v>3.33</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.16</v>
+        <v>3.69</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.08</v>
+        <v>2.5</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.43</v>
+        <v>2.64</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-alloa/t4weYINo/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-kelty-hearts/zFEyTNo6/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,14 +5641,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>5.39</v>
+        <v>3.12</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>8.18</v>
+        <v>4.01</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>04/11/2023 15:36</t>
+          <t>04/11/2023 13:18</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.14</v>
+        <v>3.46</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>5.09</v>
+        <v>3.72</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>04/11/2023 15:36</t>
+          <t>04/11/2023 14:06</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>1.5</v>
+        <v>2.04</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>1.36</v>
+        <v>1.84</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>04/11/2023 15:36</t>
+          <t>04/11/2023 13:18</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-falkirk/hlpD9Zpo/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-hamilton/YaXvSs1C/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J58" t="n">
-        <v>3.12</v>
+        <v>3.27</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4.01</v>
+        <v>3.05</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>04/11/2023 13:18</t>
+          <t>04/11/2023 14:22</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.72</v>
+        <v>3.85</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>04/11/2023 14:06</t>
+          <t>04/11/2023 15:34</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>1.84</v>
+        <v>2.13</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>04/11/2023 13:18</t>
+          <t>04/11/2023 15:34</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-hamilton/YaXvSs1C/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-montrose/GOMqR1GI/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>2.5</v>
+        <v>5.39</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.45</v>
+        <v>8.18</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:36</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.33</v>
+        <v>4.14</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.69</v>
+        <v>5.09</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:36</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.64</v>
+        <v>1.36</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:36</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-kelty-hearts/zFEyTNo6/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-falkirk/hlpD9Zpo/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>3.27</v>
+        <v>2.09</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3.05</v>
+        <v>2.23</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>04/11/2023 14:22</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.59</v>
+        <v>3.35</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.85</v>
+        <v>3.16</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>04/11/2023 15:34</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.93</v>
+        <v>3.08</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.13</v>
+        <v>3.43</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>04/11/2023 15:34</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-montrose/GOMqR1GI/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-alloa/t4weYINo/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.9</v>
+        <v>2.41</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.79</v>
+        <v>2.46</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>11/11/2023 15:54</t>
+          <t>11/11/2023 15:49</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.92</v>
+        <v>3.29</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>4.32</v>
+        <v>3.52</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>11/11/2023 15:54</t>
+          <t>11/11/2023 15:20</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.22</v>
+        <v>2.62</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.74</v>
+        <v>2.72</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>11/11/2023 15:54</t>
+          <t>11/11/2023 15:49</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-annan/lzUFTfxH/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-queen-of-south/KfxaXxwh/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Edinburgh City</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>1</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Queen of South</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
       <c r="J62" t="n">
-        <v>2.41</v>
+        <v>1.14</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.46</v>
+        <v>1.09</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>11/11/2023 15:49</t>
+          <t>10/11/2023 16:03</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.29</v>
+        <v>7.57</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.52</v>
+        <v>11.04</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>11/11/2023 15:20</t>
+          <t>11/11/2023 15:46</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.62</v>
+        <v>11.46</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.72</v>
+        <v>22.57</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>11/11/2023 15:49</t>
+          <t>11/11/2023 15:46</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-queen-of-south/KfxaXxwh/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-edinburgh-city/2JR3Wdhb/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1.14</v>
+        <v>1.37</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.09</v>
+        <v>1.37</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>10/11/2023 16:03</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>7.57</v>
+        <v>4.59</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>11.04</v>
+        <v>4.79</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>11/11/2023 15:46</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>11.46</v>
+        <v>6.39</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>22.57</v>
+        <v>8.41</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>11/11/2023 15:46</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-edinburgh-city/2JR3Wdhb/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-stirling/GMV7VG74/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.37</v>
+        <v>2.46</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.37</v>
+        <v>3.06</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.59</v>
+        <v>3.33</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.79</v>
+        <v>3.51</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>6.39</v>
+        <v>2.53</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>8.41</v>
+        <v>2.24</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:53</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-stirling/GMV7VG74/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-cove-rangers/AqVBUzNA/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>2.46</v>
+        <v>1.9</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.06</v>
+        <v>1.79</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:54</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.33</v>
+        <v>3.92</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.51</v>
+        <v>4.32</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:54</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.53</v>
+        <v>3.22</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.24</v>
+        <v>3.74</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>11/11/2023 15:53</t>
+          <t>11/11/2023 15:54</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-cove-rangers/AqVBUzNA/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-annan/lzUFTfxH/</t>
         </is>
       </c>
     </row>
@@ -6526,6 +6526,282 @@
       <c r="V66" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-montrose/feg2EOWC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Edinburgh City</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Alloa</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:15</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:15</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:15</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-alloa/QHWrNhFp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Stirling</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-stirling/8xpHRY6T/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Queen of South</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>3</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-kelty-hearts/tQEVpd7i/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-one_2023-2024.xlsx
+++ b/2023/scotland_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,71 +573,71 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>03/08/2023 09:13</t>
+          <t>04/08/2023 16:33</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:48</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>03/08/2023 09:13</t>
+          <t>04/08/2023 16:33</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.61</v>
+        <v>3.89</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:48</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.75</v>
+        <v>5.04</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>03/08/2023 09:13</t>
+          <t>04/08/2023 16:33</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>3.68</v>
+        <v>4.08</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:48</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-alloa/IN1D1Mym/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-edinburgh-city/dE0H0tig/</t>
         </is>
       </c>
     </row>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.61</v>
+        <v>1.84</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>04/08/2023 16:33</t>
+          <t>03/08/2023 09:13</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:48</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>04/08/2023 16:33</t>
+          <t>03/08/2023 09:13</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.89</v>
+        <v>3.61</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:48</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>5.04</v>
+        <v>3.75</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>04/08/2023 16:33</t>
+          <t>03/08/2023 09:13</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>4.08</v>
+        <v>3.68</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:48</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-edinburgh-city/dE0H0tig/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-alloa/IN1D1Mym/</t>
         </is>
       </c>
     </row>
@@ -4253,15 +4253,15 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.11</v>
+        <v>2.02</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>07/10/2023 15:41</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.49</v>
+        <v>3.48</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.6</v>
+        <v>3.63</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>07/10/2023 15:41</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.26</v>
+        <v>3.48</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>07/10/2023 15:41</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-stirling/QF5kHQnf/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-alloa/CC1oI6Xm/</t>
         </is>
       </c>
     </row>
@@ -4345,15 +4345,15 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.02</v>
+        <v>2.11</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:41</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.48</v>
+        <v>3.49</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.63</v>
+        <v>3.6</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:41</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.48</v>
+        <v>3.26</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:41</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-alloa/CC1oI6Xm/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-stirling/QF5kHQnf/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Stirling</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Cove Rangers</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
       <c r="J51" t="n">
-        <v>2.37</v>
+        <v>2.07</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>27/10/2023 04:13</t>
+          <t>26/10/2023 09:12</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.39</v>
+        <v>2.44</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>28/10/2023 15:43</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.5</v>
+        <v>3.41</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>27/10/2023 04:13</t>
+          <t>26/10/2023 09:12</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.83</v>
+        <v>3.62</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>28/10/2023 15:34</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.6</v>
+        <v>3.08</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>27/10/2023 04:13</t>
+          <t>26/10/2023 09:12</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>28/10/2023 15:43</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-cove-rangers/thFXT3Wa/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-stirling/pQLOVP1m/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>1</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Stirling</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
       <c r="J52" t="n">
-        <v>2.07</v>
+        <v>2.37</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>26/10/2023 09:12</t>
+          <t>27/10/2023 04:13</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.44</v>
+        <v>2.39</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:43</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.41</v>
+        <v>3.5</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>26/10/2023 09:12</t>
+          <t>27/10/2023 04:13</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.62</v>
+        <v>3.83</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:34</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.08</v>
+        <v>2.6</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>26/10/2023 09:12</t>
+          <t>27/10/2023 04:13</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:43</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-stirling/pQLOVP1m/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-cove-rangers/thFXT3Wa/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2.94</v>
+        <v>1.28</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3.12</v>
+        <v>1.28</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>28/10/2023 15:41</t>
+          <t>28/10/2023 15:33</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.48</v>
+        <v>5.23</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.09</v>
+        <v>5.68</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.11</v>
+        <v>7.7</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.03</v>
+        <v>10.24</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>28/10/2023 15:41</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-annan/lfzgynvQ/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-alloa/6ZMKW5ns/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>1.28</v>
+        <v>2.94</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.28</v>
+        <v>3.12</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>28/10/2023 15:33</t>
+          <t>28/10/2023 15:41</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>5.23</v>
+        <v>3.48</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>5.68</v>
+        <v>4.09</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="R54" t="n">
-        <v>7.7</v>
+        <v>2.11</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>10.24</v>
+        <v>2.03</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:41</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-alloa/6ZMKW5ns/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-annan/lfzgynvQ/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.41</v>
+        <v>1.9</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.46</v>
+        <v>1.79</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>11/11/2023 15:49</t>
+          <t>11/11/2023 15:54</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.29</v>
+        <v>3.92</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.52</v>
+        <v>4.32</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>11/11/2023 15:20</t>
+          <t>11/11/2023 15:54</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.62</v>
+        <v>3.22</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.72</v>
+        <v>3.74</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>11/11/2023 15:49</t>
+          <t>11/11/2023 15:54</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-queen-of-south/KfxaXxwh/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-annan/lzUFTfxH/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.14</v>
+        <v>2.46</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.09</v>
+        <v>3.06</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>10/11/2023 16:03</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>7.57</v>
+        <v>3.33</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>11.04</v>
+        <v>3.51</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>11/11/2023 15:46</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>11.46</v>
+        <v>2.53</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>22.57</v>
+        <v>2.24</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>11/11/2023 15:46</t>
+          <t>11/11/2023 15:53</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-edinburgh-city/2JR3Wdhb/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-cove-rangers/AqVBUzNA/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.37</v>
+        <v>1.14</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.37</v>
+        <v>1.09</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>10/11/2023 16:03</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.59</v>
+        <v>7.57</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.79</v>
+        <v>11.04</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:46</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>6.39</v>
+        <v>11.46</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>8.41</v>
+        <v>22.57</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:46</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-stirling/GMV7VG74/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-edinburgh-city/2JR3Wdhb/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Queen of South</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Cove Rangers</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
       <c r="J64" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
         <v>2.46</v>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O64" t="inlineStr">
         <is>
           <t>09/11/2023 09:12</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>11/11/2023 15:57</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="O64" t="inlineStr">
+      <c r="P64" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:20</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S64" t="inlineStr">
         <is>
           <t>09/11/2023 09:12</t>
         </is>
       </c>
-      <c r="P64" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>11/11/2023 15:57</t>
-        </is>
-      </c>
-      <c r="R64" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>09/11/2023 09:12</t>
-        </is>
-      </c>
       <c r="T64" t="n">
-        <v>2.24</v>
+        <v>2.72</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>11/11/2023 15:53</t>
+          <t>11/11/2023 15:49</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-cove-rangers/AqVBUzNA/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-queen-of-south/KfxaXxwh/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.9</v>
+        <v>1.37</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.79</v>
+        <v>1.37</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>11/11/2023 15:54</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.92</v>
+        <v>4.59</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.32</v>
+        <v>4.79</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>11/11/2023 15:54</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.22</v>
+        <v>6.39</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.74</v>
+        <v>8.41</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>11/11/2023 15:54</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-annan/lzUFTfxH/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-stirling/GMV7VG74/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,14 +6561,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>3.04</v>
+        <v>1.68</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>4.08</v>
+        <v>1.66</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>18/11/2023 15:15</t>
+          <t>18/11/2023 15:54</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.52</v>
+        <v>3.77</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.97</v>
+        <v>3.75</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>18/11/2023 15:15</t>
+          <t>18/11/2023 15:54</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.05</v>
+        <v>4.15</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>1.78</v>
+        <v>5.31</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>18/11/2023 15:15</t>
+          <t>18/11/2023 15:54</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-alloa/QHWrNhFp/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-stirling/8xpHRY6T/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.68</v>
+        <v>3.04</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.66</v>
+        <v>4.08</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>18/11/2023 15:54</t>
+          <t>18/11/2023 15:15</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.77</v>
+        <v>3.52</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.75</v>
+        <v>3.97</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>18/11/2023 15:54</t>
+          <t>18/11/2023 15:15</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.15</v>
+        <v>2.05</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>5.31</v>
+        <v>1.78</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>18/11/2023 15:54</t>
+          <t>18/11/2023 15:15</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-stirling/8xpHRY6T/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-alloa/QHWrNhFp/</t>
         </is>
       </c>
     </row>
@@ -6802,6 +6802,190 @@
       <c r="V69" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-kelty-hearts/tQEVpd7i/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45258.86458333334</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Annan</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:36</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-hamilton/UooDSEiN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45258.86458333334</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Montrose</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>28/11/2023 19:24</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>28/11/2023 19:24</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>28/11/2023 19:24</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-falkirk/vLzmMCUj/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-one_2023-2024.xlsx
+++ b/2023/scotland_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,71 +1033,71 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.57</v>
+        <v>3.48</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>11/08/2023 23:50</t>
+          <t>11/08/2023 23:52</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.92</v>
+        <v>2.79</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.53</v>
+        <v>3.56</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>11/08/2023 23:50</t>
+          <t>11/08/2023 23:52</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.73</v>
+        <v>3.46</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:43</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>11/08/2023 23:50</t>
+          <t>11/08/2023 23:52</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>1.87</v>
+        <v>2.44</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-falkirk/YPxdtvLT/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-hamilton/Cj860s6o/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.21</v>
+        <v>3.57</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>11/08/2023 23:50</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.84</v>
+        <v>3.92</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>12/08/2023 15:41</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.32</v>
+        <v>3.53</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>11/08/2023 23:50</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.52</v>
+        <v>3.73</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>12/08/2023 14:03</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.96</v>
+        <v>2</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>11/08/2023 04:12</t>
+          <t>11/08/2023 23:50</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.37</v>
+        <v>1.87</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>12/08/2023 15:41</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-montrose/v3whsK5N/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-falkirk/YPxdtvLT/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>11/08/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>12/08/2023 15:41</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>11/08/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>12/08/2023 14:03</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>11/08/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
         <v>2.37</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>11/08/2023 23:50</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:53</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>11/08/2023 23:50</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:53</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>11/08/2023 23:50</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
-        <v>2.81</v>
-      </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>12/08/2023 15:53</t>
+          <t>12/08/2023 15:41</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-stirling/0Cvlr0jH/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-montrose/v3whsK5N/</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Stirling</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Queen of South</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
       <c r="J10" t="n">
-        <v>3.16</v>
+        <v>2.37</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3.54</v>
+        <v>2.42</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>12/08/2023 14:04</t>
+          <t>12/08/2023 15:53</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.51</v>
+        <v>3.46</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.79</v>
+        <v>3.46</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>12/08/2023 14:04</t>
+          <t>12/08/2023 15:53</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.16</v>
+        <v>2.83</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>1.95</v>
+        <v>2.81</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>12/08/2023 14:04</t>
+          <t>12/08/2023 15:53</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-queen-of-south/AoUNybTp/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-stirling/0Cvlr0jH/</t>
         </is>
       </c>
     </row>
@@ -1401,71 +1401,71 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.48</v>
+        <v>3.16</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>11/08/2023 23:52</t>
+          <t>11/08/2023 23:50</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.79</v>
+        <v>3.54</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 14:04</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.56</v>
+        <v>3.51</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>11/08/2023 23:52</t>
+          <t>11/08/2023 23:50</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.46</v>
+        <v>3.79</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>12/08/2023 15:43</t>
+          <t>12/08/2023 14:04</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.01</v>
+        <v>2.16</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>11/08/2023 23:52</t>
+          <t>11/08/2023 23:50</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.44</v>
+        <v>1.95</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 14:04</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-hamilton/Cj860s6o/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-queen-of-south/AoUNybTp/</t>
         </is>
       </c>
     </row>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
         <v>3</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Annan</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
       <c r="J12" t="n">
-        <v>1.74</v>
+        <v>3.63</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.53</v>
+        <v>5.18</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.41</v>
+        <v>4.27</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.93</v>
+        <v>1.81</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>5.65</v>
+        <v>1.59</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-annan/YPbReJKG/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-hamilton/js7Aa1Li/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.64</v>
+        <v>1.74</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,39 +1608,39 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.41</v>
+        <v>1.53</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>19/08/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>17/08/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
           <t>19/08/2023 15:59</t>
         </is>
       </c>
-      <c r="N13" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="R13" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>17/08/2023 09:13</t>
         </is>
       </c>
-      <c r="P13" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>19/08/2023 15:50</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>17/08/2023 09:13</t>
-        </is>
-      </c>
       <c r="T13" t="n">
-        <v>2.78</v>
+        <v>5.65</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-cove-rangers/KMfNda5A/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-annan/YPbReJKG/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.55</v>
+        <v>2.64</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.53</v>
+        <v>2.41</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>19/08/2023 15:37</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.15</v>
+        <v>3.24</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.37</v>
+        <v>3.52</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>19/08/2023 15:37</t>
+          <t>19/08/2023 15:50</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.55</v>
+        <v>2.41</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.73</v>
+        <v>2.78</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>19/08/2023 15:37</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-alloa/xb5Icuj4/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-cove-rangers/KMfNda5A/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.63</v>
+        <v>2.55</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5.18</v>
+        <v>2.53</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:37</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.63</v>
+        <v>3.15</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.27</v>
+        <v>3.37</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:37</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.81</v>
+        <v>2.55</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.59</v>
+        <v>2.73</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:37</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-hamilton/js7Aa1Li/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-alloa/xb5Icuj4/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.09</v>
+        <v>1.91</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.03</v>
+        <v>2.26</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.38</v>
+        <v>3.59</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,32 +2084,32 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.64</v>
+        <v>3.72</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
+          <t>26/08/2023 15:48</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>24/08/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
           <t>26/08/2023 15:50</t>
         </is>
       </c>
-      <c r="R18" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>24/08/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T18" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>26/08/2023 15:50</t>
-        </is>
-      </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-edinburgh-city/4CLbwB4k/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-queen-of-south/MmG3xVJe/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.91</v>
+        <v>1.54</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.26</v>
+        <v>1.39</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.59</v>
+        <v>4.1</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.72</v>
+        <v>4.94</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>26/08/2023 15:48</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.34</v>
+        <v>4.8</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.88</v>
+        <v>7.35</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-queen-of-south/MmG3xVJe/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-montrose/0vF7ykZ1/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1.54</v>
+        <v>2.09</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.39</v>
+        <v>2.03</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>4.1</v>
+        <v>3.38</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4.94</v>
+        <v>3.64</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>4.8</v>
+        <v>3.05</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>7.35</v>
+        <v>3.44</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-montrose/0vF7ykZ1/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-edinburgh-city/4CLbwB4k/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.58</v>
+        <v>1.68</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.82</v>
+        <v>1.62</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.29</v>
+        <v>3.87</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.4</v>
+        <v>4.17</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:34</t>
+          <t>02/09/2023 15:55</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.45</v>
+        <v>4.04</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.45</v>
+        <v>4.97</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-cove-rangers/QH6gahR8/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-montrose/G6a6djBR/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:49</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.87</v>
+        <v>4.07</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>4.17</v>
+        <v>4.28</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:55</t>
+          <t>02/09/2023 15:49</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.04</v>
+        <v>5.19</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.97</v>
+        <v>3.64</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-montrose/G6a6djBR/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-annan/nXf2cWeL/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>1.51</v>
+        <v>5.07</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.82</v>
+        <v>12.18</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:49</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.07</v>
+        <v>4.03</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>4.28</v>
+        <v>6.4</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:49</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>5.19</v>
+        <v>1.52</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.64</v>
+        <v>1.23</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-annan/nXf2cWeL/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-falkirk/8tdbbCtF/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Falkirk</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>2</v>
-      </c>
       <c r="J25" t="n">
-        <v>5.07</v>
+        <v>2.58</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>12.18</v>
+        <v>2.82</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>4.03</v>
+        <v>3.29</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>6.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:34</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>1.52</v>
+        <v>2.45</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>1.23</v>
+        <v>2.45</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-falkirk/8tdbbCtF/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-cove-rangers/QH6gahR8/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Edinburgh City</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>2</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Alloa</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
       <c r="J27" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>16/09/2023 13:53</t>
+          <t>16/09/2023 15:39</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>4.01</v>
+        <v>3.91</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.39</v>
+        <v>4.12</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>16/09/2023 14:05</t>
+          <t>16/09/2023 15:50</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>5.02</v>
+        <v>4.63</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>6.07</v>
+        <v>5.26</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>16/09/2023 13:53</t>
+          <t>16/09/2023 15:39</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-alloa/newklSI7/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-edinburgh-city/YcbPCBe8/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Alloa</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Queen of South</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
-        <v>1.74</v>
+        <v>1.53</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 13:53</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.72</v>
+        <v>4.01</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.43</v>
+        <v>4.39</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 14:05</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.85</v>
+        <v>5.02</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>5.15</v>
+        <v>6.07</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 13:53</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-queen-of-south/84vok831/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-alloa/newklSI7/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.94</v>
+        <v>1.74</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16/09/2023 15:09</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.46</v>
+        <v>3.72</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.79</v>
+        <v>4.43</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>16/09/2023 15:46</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.36</v>
+        <v>3.85</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.83</v>
+        <v>5.15</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/09/2023 15:46</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-kelty-hearts/Esusjlle/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-queen-of-south/84vok831/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.56</v>
+        <v>1.94</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3.06</v>
+        <v>1.88</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:51</t>
+          <t>16/09/2023 15:09</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.27</v>
+        <v>3.46</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.55</v>
+        <v>3.79</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:51</t>
+          <t>16/09/2023 15:46</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.47</v>
+        <v>3.36</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.22</v>
+        <v>3.83</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16/09/2023 15:51</t>
+          <t>16/09/2023 15:46</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-stirling/0vywiUYl/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-kelty-hearts/Esusjlle/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.58</v>
+        <v>2.56</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.6</v>
+        <v>3.06</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:39</t>
+          <t>16/09/2023 15:51</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.91</v>
+        <v>3.27</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>4.12</v>
+        <v>3.55</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:50</t>
+          <t>16/09/2023 15:51</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.63</v>
+        <v>2.47</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>5.26</v>
+        <v>2.22</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16/09/2023 15:39</t>
+          <t>16/09/2023 15:51</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-edinburgh-city/YcbPCBe8/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-stirling/0vywiUYl/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,14 +3433,14 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>2.07</v>
+        <v>2.62</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.06</v>
+        <v>3.18</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>23/09/2023 11:40</t>
+          <t>23/09/2023 15:36</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.4</v>
+        <v>3.26</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.45</v>
+        <v>3.61</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>23/09/2023 14:03</t>
+          <t>23/09/2023 15:00</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.09</v>
+        <v>2.42</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.49</v>
+        <v>2.15</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>23/09/2023 11:40</t>
+          <t>23/09/2023 15:36</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-stirling/Qew45Tmr/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-hamilton/4nx84m3l/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.38</v>
+        <v>2.07</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4.6</v>
+        <v>2.06</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>23/09/2023 15:40</t>
+          <t>23/09/2023 11:40</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>4.38</v>
+        <v>3.45</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>23/09/2023 15:40</t>
+          <t>23/09/2023 14:03</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>1.92</v>
+        <v>3.09</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1.63</v>
+        <v>3.49</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>23/09/2023 15:40</t>
+          <t>23/09/2023 11:40</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-cove-rangers/6BdXAkQK/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-stirling/Qew45Tmr/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>2.62</v>
+        <v>3.38</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3.18</v>
+        <v>4.6</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>23/09/2023 15:36</t>
+          <t>23/09/2023 15:40</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.26</v>
+        <v>3.52</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.61</v>
+        <v>4.38</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>23/09/2023 15:00</t>
+          <t>23/09/2023 15:40</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.42</v>
+        <v>1.92</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.15</v>
+        <v>1.63</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>23/09/2023 15:36</t>
+          <t>23/09/2023 15:40</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-hamilton/4nx84m3l/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-cove-rangers/6BdXAkQK/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.67</v>
+        <v>2.45</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.63</v>
+        <v>2.59</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/09/2023 11:55</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.86</v>
+        <v>3.3</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>4.2</v>
+        <v>3.72</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/09/2023 14:03</t>
+          <t>30/09/2023 14:23</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.12</v>
+        <v>2.56</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>4.73</v>
+        <v>2.49</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/09/2023 11:55</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-edinburgh-city/YLtC37If/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-queen-of-south/6BYO052D/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 11:55</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4.5</v>
+        <v>3.86</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>5.44</v>
+        <v>4.2</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 14:03</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>5.77</v>
+        <v>4.12</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>9.199999999999999</v>
+        <v>4.73</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 11:55</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-montrose/CCuG2RX0/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-edinburgh-city/YLtC37If/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>2.45</v>
+        <v>1.42</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,39 +4092,39 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.59</v>
+        <v>1.31</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
+          <t>30/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>28/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
           <t>30/09/2023 15:59</t>
         </is>
       </c>
-      <c r="N40" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O40" t="inlineStr">
+      <c r="R40" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="S40" t="inlineStr">
         <is>
           <t>28/09/2023 08:13</t>
         </is>
       </c>
-      <c r="P40" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>30/09/2023 14:23</t>
-        </is>
-      </c>
-      <c r="R40" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>28/09/2023 08:13</t>
-        </is>
-      </c>
       <c r="T40" t="n">
-        <v>2.49</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-queen-of-south/6BYO052D/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-montrose/CCuG2RX0/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Annan</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>2</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Alloa</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.96</v>
+        <v>1.68</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.02</v>
+        <v>1.6</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 03:06</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.48</v>
+        <v>3.83</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.63</v>
+        <v>4.19</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 14:03</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.28</v>
+        <v>4.08</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.48</v>
+        <v>4.6</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 03:06</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-alloa/CC1oI6Xm/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-annan/b5LAO8fK/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>1.96</v>
+        <v>3.09</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.11</v>
+        <v>3.64</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:41</t>
+          <t>07/10/2023 15:35</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.6</v>
+        <v>4.03</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:41</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.27</v>
+        <v>2.05</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.26</v>
+        <v>1.87</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:41</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-stirling/QF5kHQnf/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-kelty-hearts/GtGFNS9Q/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.6</v>
+        <v>2.02</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>07/10/2023 03:06</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.83</v>
+        <v>3.48</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.19</v>
+        <v>3.63</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>07/10/2023 14:03</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.08</v>
+        <v>3.28</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.6</v>
+        <v>3.48</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>07/10/2023 03:06</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-annan/b5LAO8fK/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-alloa/CC1oI6Xm/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Stirling</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Kelty Hearts</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>4</v>
-      </c>
       <c r="J45" t="n">
-        <v>3.09</v>
+        <v>1.96</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.64</v>
+        <v>2.11</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>07/10/2023 15:35</t>
+          <t>07/10/2023 15:41</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.45</v>
+        <v>3.49</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.03</v>
+        <v>3.6</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:41</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.05</v>
+        <v>3.27</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.87</v>
+        <v>3.26</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:41</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-kelty-hearts/GtGFNS9Q/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-stirling/QF5kHQnf/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>2.32</v>
+        <v>5.43</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.57</v>
+        <v>6.82</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.5</v>
+        <v>4.14</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.66</v>
+        <v>4.59</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>21/10/2023 14:03</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.66</v>
+        <v>1.5</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.53</v>
+        <v>1.44</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-kelty-hearts/8vefGp20/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-falkirk/ziWlxSOJ/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2.63</v>
+        <v>1.19</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.64</v>
+        <v>1.17</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:35</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.46</v>
+        <v>6.55</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.69</v>
+        <v>7.9</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>21/10/2023 15:17</t>
+          <t>21/10/2023 15:35</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.37</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.45</v>
+        <v>13.65</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:35</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-queen-of-south/nVgbF4H6/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-edinburgh-city/Yoh6DrnJ/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.19</v>
+        <v>2.63</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.17</v>
+        <v>2.64</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>21/10/2023 15:35</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>6.55</v>
+        <v>3.46</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>7.9</v>
+        <v>3.69</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>21/10/2023 15:35</t>
+          <t>21/10/2023 15:17</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>9.529999999999999</v>
+        <v>2.37</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>13.65</v>
+        <v>2.45</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>21/10/2023 15:35</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-edinburgh-city/Yoh6DrnJ/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-queen-of-south/nVgbF4H6/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Falkirk</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
       <c r="J50" t="n">
-        <v>5.43</v>
+        <v>2.32</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>6.82</v>
+        <v>2.57</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.14</v>
+        <v>3.5</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.59</v>
+        <v>3.66</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 14:03</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.5</v>
+        <v>2.66</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.44</v>
+        <v>2.53</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-falkirk/ziWlxSOJ/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-kelty-hearts/8vefGp20/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>2.07</v>
+        <v>2.94</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.44</v>
+        <v>3.12</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:41</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.41</v>
+        <v>3.48</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.62</v>
+        <v>4.09</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.08</v>
+        <v>2.11</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.69</v>
+        <v>2.03</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:41</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-stirling/pQLOVP1m/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-annan/lfzgynvQ/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Alloa</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Cove Rangers</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
       <c r="J52" t="n">
-        <v>2.37</v>
+        <v>1.28</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>27/10/2023 04:13</t>
+          <t>26/10/2023 09:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.39</v>
+        <v>1.28</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>28/10/2023 15:43</t>
+          <t>28/10/2023 15:33</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.5</v>
+        <v>5.23</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>27/10/2023 04:13</t>
+          <t>26/10/2023 09:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.83</v>
+        <v>5.68</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>28/10/2023 15:34</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.6</v>
+        <v>7.7</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>27/10/2023 04:13</t>
+          <t>26/10/2023 09:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.65</v>
+        <v>10.24</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>28/10/2023 15:43</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-cove-rangers/thFXT3Wa/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-alloa/6ZMKW5ns/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.28</v>
+        <v>2.07</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.28</v>
+        <v>2.44</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>28/10/2023 15:33</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>5.23</v>
+        <v>3.41</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>5.68</v>
+        <v>3.62</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>7.7</v>
+        <v>3.08</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>10.24</v>
+        <v>2.69</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-alloa/6ZMKW5ns/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-stirling/pQLOVP1m/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.94</v>
+        <v>2.37</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>26/10/2023 09:12</t>
+          <t>27/10/2023 04:13</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.12</v>
+        <v>2.39</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>28/10/2023 15:41</t>
+          <t>28/10/2023 15:43</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>26/10/2023 09:12</t>
+          <t>27/10/2023 04:13</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.09</v>
+        <v>3.83</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:34</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.11</v>
+        <v>2.6</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>26/10/2023 09:12</t>
+          <t>27/10/2023 04:13</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.03</v>
+        <v>2.65</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>28/10/2023 15:41</t>
+          <t>28/10/2023 15:43</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-annan/lfzgynvQ/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-cove-rangers/thFXT3Wa/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>2.5</v>
+        <v>2.09</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.33</v>
+        <v>3.35</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.69</v>
+        <v>3.16</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.5</v>
+        <v>3.08</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.64</v>
+        <v>3.43</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-kelty-hearts/zFEyTNo6/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-alloa/t4weYINo/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,14 +5641,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>3.12</v>
+        <v>5.39</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4.01</v>
+        <v>8.18</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>04/11/2023 13:18</t>
+          <t>04/11/2023 15:36</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.46</v>
+        <v>4.14</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.72</v>
+        <v>5.09</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>04/11/2023 14:06</t>
+          <t>04/11/2023 15:36</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.04</v>
+        <v>1.5</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>1.84</v>
+        <v>1.36</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>04/11/2023 13:18</t>
+          <t>04/11/2023 15:36</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-hamilton/YaXvSs1C/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-falkirk/hlpD9Zpo/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>3.27</v>
+        <v>2.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3.05</v>
+        <v>2.45</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>04/11/2023 14:22</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.59</v>
+        <v>3.33</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.85</v>
+        <v>3.69</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>04/11/2023 15:34</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1.93</v>
+        <v>2.5</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.13</v>
+        <v>2.64</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>04/11/2023 15:34</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-montrose/GOMqR1GI/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-kelty-hearts/zFEyTNo6/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>5.39</v>
+        <v>3.12</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>8.18</v>
+        <v>4.01</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>04/11/2023 15:36</t>
+          <t>04/11/2023 13:18</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.14</v>
+        <v>3.46</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>5.09</v>
+        <v>3.72</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>04/11/2023 15:36</t>
+          <t>04/11/2023 14:06</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.5</v>
+        <v>2.04</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>1.36</v>
+        <v>1.84</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>04/11/2023 15:36</t>
+          <t>04/11/2023 13:18</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-falkirk/hlpD9Zpo/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-hamilton/YaXvSs1C/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J60" t="n">
-        <v>2.09</v>
+        <v>3.27</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.23</v>
+        <v>3.05</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 14:22</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.35</v>
+        <v>3.59</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.16</v>
+        <v>3.85</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:34</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.08</v>
+        <v>1.93</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.43</v>
+        <v>2.13</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:34</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-alloa/t4weYINo/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-montrose/GOMqR1GI/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.9</v>
+        <v>2.41</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.79</v>
+        <v>2.46</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>11/11/2023 15:54</t>
+          <t>11/11/2023 15:49</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.92</v>
+        <v>3.29</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>4.32</v>
+        <v>3.52</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>11/11/2023 15:54</t>
+          <t>11/11/2023 15:20</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.22</v>
+        <v>2.62</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.74</v>
+        <v>2.72</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>11/11/2023 15:54</t>
+          <t>11/11/2023 15:49</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-annan/lzUFTfxH/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-queen-of-south/KfxaXxwh/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.46</v>
+        <v>1.14</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3.06</v>
+        <v>1.09</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>10/11/2023 16:03</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.33</v>
+        <v>7.57</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.51</v>
+        <v>11.04</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:46</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.53</v>
+        <v>11.46</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.24</v>
+        <v>22.57</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>11/11/2023 15:53</t>
+          <t>11/11/2023 15:46</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-cove-rangers/AqVBUzNA/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-edinburgh-city/2JR3Wdhb/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1.14</v>
+        <v>1.37</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.09</v>
+        <v>1.37</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>10/11/2023 16:03</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>7.57</v>
+        <v>4.59</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>11.04</v>
+        <v>4.79</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>11/11/2023 15:46</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>11.46</v>
+        <v>6.39</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>22.57</v>
+        <v>8.41</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>11/11/2023 15:46</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-edinburgh-city/2JR3Wdhb/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-stirling/GMV7VG74/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>1</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Queen of South</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.41</v>
+        <v>2.46</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.46</v>
+        <v>3.06</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>11/11/2023 15:49</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.29</v>
+        <v>3.33</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.52</v>
+        <v>3.51</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>11/11/2023 15:20</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.62</v>
+        <v>2.53</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.72</v>
+        <v>2.24</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>11/11/2023 15:49</t>
+          <t>11/11/2023 15:53</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-queen-of-south/KfxaXxwh/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-cove-rangers/AqVBUzNA/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>1.37</v>
+        <v>1.9</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.37</v>
+        <v>1.79</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:54</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>4.59</v>
+        <v>3.92</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.79</v>
+        <v>4.32</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:54</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>6.39</v>
+        <v>3.22</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>8.41</v>
+        <v>3.74</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:54</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-stirling/GMV7VG74/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-annan/lzUFTfxH/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>5.04</v>
+        <v>5.96</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>5.51</v>
+        <v>8.48</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 19:24</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>4.22</v>
+        <v>4.38</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4.31</v>
+        <v>5.02</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 19:24</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>28/11/2023 20:36</t>
+          <t>28/11/2023 19:24</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-hamilton/UooDSEiN/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-falkirk/vLzmMCUj/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,163 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:36</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-hamilton/UooDSEiN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45262.66666666666</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>5</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Queen of South</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Falkirk</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>24/11/2023 01:13</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>28/11/2023 19:24</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>24/11/2023 01:13</t>
-        </is>
-      </c>
-      <c r="P71" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>28/11/2023 19:24</t>
-        </is>
-      </c>
-      <c r="R71" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>24/11/2023 01:13</t>
-        </is>
-      </c>
-      <c r="T71" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>28/11/2023 19:24</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-falkirk/vLzmMCUj/</t>
+      <c r="J72" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-queen-of-south/StHsrfiA/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-one_2023-2024.xlsx
+++ b/2023/scotland_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.63</v>
+        <v>1.74</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5.18</v>
+        <v>1.53</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.27</v>
+        <v>4.41</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.81</v>
+        <v>3.93</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>1.59</v>
+        <v>5.65</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-hamilton/js7Aa1Li/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-annan/YPbReJKG/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>3</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Annan</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.74</v>
+        <v>2.64</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.53</v>
+        <v>2.41</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.66</v>
+        <v>3.24</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,32 +1624,32 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.41</v>
+        <v>3.52</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
+          <t>19/08/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>17/08/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
           <t>19/08/2023 15:59</t>
         </is>
       </c>
-      <c r="R13" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>17/08/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T13" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>19/08/2023 15:59</t>
-        </is>
-      </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-annan/YPbReJKG/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-cove-rangers/KMfNda5A/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.64</v>
+        <v>2.55</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.41</v>
+        <v>2.53</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 15:37</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.24</v>
+        <v>3.15</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.52</v>
+        <v>3.37</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>19/08/2023 15:50</t>
+          <t>19/08/2023 15:37</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.41</v>
+        <v>2.55</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.78</v>
+        <v>2.73</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 15:37</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-cove-rangers/KMfNda5A/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-alloa/xb5Icuj4/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>2.55</v>
+        <v>3.63</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.53</v>
+        <v>5.18</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:37</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.15</v>
+        <v>3.63</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.37</v>
+        <v>4.27</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:37</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.55</v>
+        <v>1.81</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.73</v>
+        <v>1.59</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:37</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-alloa/xb5Icuj4/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-hamilton/js7Aa1Li/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.75</v>
+        <v>2.09</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.14</v>
+        <v>2.03</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.65</v>
+        <v>3.38</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.69</v>
+        <v>3.64</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.89</v>
+        <v>3.05</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-kelty-hearts/Es3k0YB2/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-edinburgh-city/4CLbwB4k/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.09</v>
+        <v>1.75</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.03</v>
+        <v>2.14</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.38</v>
+        <v>3.65</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.64</v>
+        <v>3.69</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.05</v>
+        <v>3.89</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.44</v>
+        <v>3.13</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-edinburgh-city/4CLbwB4k/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-kelty-hearts/Es3k0YB2/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:49</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.87</v>
+        <v>4.07</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>4.17</v>
+        <v>4.28</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:55</t>
+          <t>02/09/2023 15:49</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>4.04</v>
+        <v>5.19</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.97</v>
+        <v>3.64</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-montrose/G6a6djBR/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-annan/nXf2cWeL/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>1.51</v>
+        <v>5.07</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.82</v>
+        <v>12.18</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:49</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.07</v>
+        <v>4.03</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>4.28</v>
+        <v>6.4</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:49</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>5.19</v>
+        <v>1.52</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.64</v>
+        <v>1.23</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-annan/nXf2cWeL/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-falkirk/8tdbbCtF/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Falkirk</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>2</v>
-      </c>
       <c r="J24" t="n">
-        <v>5.07</v>
+        <v>2.58</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>12.18</v>
+        <v>2.82</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.03</v>
+        <v>3.29</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>6.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:34</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>1.52</v>
+        <v>2.45</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>1.23</v>
+        <v>2.45</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/09/2023 15:58</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-falkirk/8tdbbCtF/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-cove-rangers/QH6gahR8/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>2.58</v>
+        <v>1.68</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.82</v>
+        <v>1.62</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.29</v>
+        <v>3.87</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>4.17</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:34</t>
+          <t>02/09/2023 15:55</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.45</v>
+        <v>4.04</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.45</v>
+        <v>4.97</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:58</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-cove-rangers/QH6gahR8/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-montrose/G6a6djBR/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.45</v>
+        <v>1.67</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.59</v>
+        <v>1.63</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 11:55</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.3</v>
+        <v>3.86</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.72</v>
+        <v>4.2</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/09/2023 14:23</t>
+          <t>30/09/2023 14:03</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.56</v>
+        <v>4.12</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.49</v>
+        <v>4.73</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 11:55</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-queen-of-south/6BYO052D/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-edinburgh-city/YLtC37If/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30/09/2023 11:55</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.86</v>
+        <v>4.5</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.2</v>
+        <v>5.44</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>30/09/2023 14:03</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.12</v>
+        <v>5.77</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.73</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/09/2023 11:55</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-edinburgh-city/YLtC37If/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-montrose/CCuG2RX0/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.42</v>
+        <v>2.45</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.31</v>
+        <v>2.59</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,32 +4108,32 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>5.44</v>
+        <v>3.72</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
+          <t>30/09/2023 14:23</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>28/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
           <t>30/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R40" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>28/09/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T40" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-montrose/CCuG2RX0/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-queen-of-south/6BYO052D/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.6</v>
+        <v>2.11</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>07/10/2023 03:06</t>
+          <t>07/10/2023 15:41</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.83</v>
+        <v>3.49</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.19</v>
+        <v>3.6</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>07/10/2023 14:03</t>
+          <t>07/10/2023 15:41</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.08</v>
+        <v>3.27</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.6</v>
+        <v>3.26</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>07/10/2023 03:06</t>
+          <t>07/10/2023 15:41</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-annan/b5LAO8fK/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-stirling/QF5kHQnf/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Alloa</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Kelty Hearts</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
       <c r="J43" t="n">
-        <v>3.09</v>
+        <v>1.96</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.64</v>
+        <v>2.02</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:35</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.03</v>
+        <v>3.63</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.05</v>
+        <v>3.28</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.87</v>
+        <v>3.48</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-kelty-hearts/GtGFNS9Q/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-alloa/CC1oI6Xm/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Annan</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>2</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Alloa</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
       <c r="J44" t="n">
-        <v>1.96</v>
+        <v>1.68</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.02</v>
+        <v>1.6</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 03:06</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.48</v>
+        <v>3.83</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.63</v>
+        <v>4.19</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 14:03</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.28</v>
+        <v>4.08</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.48</v>
+        <v>4.6</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 03:06</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-alloa/CC1oI6Xm/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-annan/b5LAO8fK/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>1.96</v>
+        <v>3.09</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.11</v>
+        <v>3.64</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>07/10/2023 15:41</t>
+          <t>07/10/2023 15:35</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.6</v>
+        <v>4.03</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>07/10/2023 15:41</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.27</v>
+        <v>2.05</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.26</v>
+        <v>1.87</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>07/10/2023 15:41</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-stirling/QF5kHQnf/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-kelty-hearts/GtGFNS9Q/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>1</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Falkirk</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>2</v>
-      </c>
       <c r="J47" t="n">
-        <v>5.43</v>
+        <v>2.32</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>6.82</v>
+        <v>2.57</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.14</v>
+        <v>3.5</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.59</v>
+        <v>3.66</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 14:03</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>1.5</v>
+        <v>2.66</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>1.44</v>
+        <v>2.53</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-falkirk/ziWlxSOJ/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-kelty-hearts/8vefGp20/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.19</v>
+        <v>2.63</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.17</v>
+        <v>2.64</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>21/10/2023 15:35</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>6.55</v>
+        <v>3.46</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>7.9</v>
+        <v>3.69</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>21/10/2023 15:35</t>
+          <t>21/10/2023 15:17</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>9.529999999999999</v>
+        <v>2.37</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>13.65</v>
+        <v>2.45</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>21/10/2023 15:35</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-edinburgh-city/Yoh6DrnJ/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-queen-of-south/nVgbF4H6/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.63</v>
+        <v>1.19</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.64</v>
+        <v>1.17</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:35</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.46</v>
+        <v>6.55</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.69</v>
+        <v>7.9</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>21/10/2023 15:17</t>
+          <t>21/10/2023 15:35</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.37</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.45</v>
+        <v>13.65</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:35</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-queen-of-south/nVgbF4H6/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-edinburgh-city/Yoh6DrnJ/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.32</v>
+        <v>5.43</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.57</v>
+        <v>6.82</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.5</v>
+        <v>4.14</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.66</v>
+        <v>4.59</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>21/10/2023 14:03</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.66</v>
+        <v>1.5</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.53</v>
+        <v>1.44</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-kelty-hearts/8vefGp20/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-falkirk/ziWlxSOJ/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>2.09</v>
+        <v>2.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.23</v>
+        <v>2.45</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.35</v>
+        <v>3.33</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.16</v>
+        <v>3.69</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.08</v>
+        <v>2.5</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.43</v>
+        <v>2.64</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-alloa/t4weYINo/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-kelty-hearts/zFEyTNo6/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,14 +5641,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>5.39</v>
+        <v>3.12</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>8.18</v>
+        <v>4.01</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>04/11/2023 15:36</t>
+          <t>04/11/2023 13:18</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.14</v>
+        <v>3.46</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>5.09</v>
+        <v>3.72</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>04/11/2023 15:36</t>
+          <t>04/11/2023 14:06</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>1.5</v>
+        <v>2.04</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>1.36</v>
+        <v>1.84</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>04/11/2023 15:36</t>
+          <t>04/11/2023 13:18</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-falkirk/hlpD9Zpo/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-hamilton/YaXvSs1C/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J58" t="n">
-        <v>2.5</v>
+        <v>3.27</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.45</v>
+        <v>3.05</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 14:22</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.33</v>
+        <v>3.59</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.69</v>
+        <v>3.85</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:34</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.5</v>
+        <v>1.93</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.64</v>
+        <v>2.13</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:34</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-kelty-hearts/zFEyTNo6/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-montrose/GOMqR1GI/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>3.12</v>
+        <v>5.39</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4.01</v>
+        <v>8.18</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>04/11/2023 13:18</t>
+          <t>04/11/2023 15:36</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.46</v>
+        <v>4.14</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.72</v>
+        <v>5.09</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>04/11/2023 14:06</t>
+          <t>04/11/2023 15:36</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.04</v>
+        <v>1.5</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>1.84</v>
+        <v>1.36</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>04/11/2023 13:18</t>
+          <t>04/11/2023 15:36</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-hamilton/YaXvSs1C/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-falkirk/hlpD9Zpo/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>3.27</v>
+        <v>2.09</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3.05</v>
+        <v>2.23</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>04/11/2023 14:22</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.59</v>
+        <v>3.35</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.85</v>
+        <v>3.16</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>04/11/2023 15:34</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.93</v>
+        <v>3.08</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.13</v>
+        <v>3.43</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>04/11/2023 15:34</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-montrose/GOMqR1GI/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-alloa/t4weYINo/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.41</v>
+        <v>1.9</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.46</v>
+        <v>1.79</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>11/11/2023 15:49</t>
+          <t>11/11/2023 15:54</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.29</v>
+        <v>3.92</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.52</v>
+        <v>4.32</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>11/11/2023 15:20</t>
+          <t>11/11/2023 15:54</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.62</v>
+        <v>3.22</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.72</v>
+        <v>3.74</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>11/11/2023 15:49</t>
+          <t>11/11/2023 15:54</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-queen-of-south/KfxaXxwh/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-annan/lzUFTfxH/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.14</v>
+        <v>2.46</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.09</v>
+        <v>3.06</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>10/11/2023 16:03</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>7.57</v>
+        <v>3.33</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>11.04</v>
+        <v>3.51</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>11/11/2023 15:46</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>11.46</v>
+        <v>2.53</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>22.57</v>
+        <v>2.24</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>11/11/2023 15:46</t>
+          <t>11/11/2023 15:53</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-edinburgh-city/2JR3Wdhb/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-cove-rangers/AqVBUzNA/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Queen of South</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Cove Rangers</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
       <c r="J64" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
         <v>2.46</v>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O64" t="inlineStr">
         <is>
           <t>09/11/2023 09:12</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>11/11/2023 15:57</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="O64" t="inlineStr">
+      <c r="P64" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:20</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S64" t="inlineStr">
         <is>
           <t>09/11/2023 09:12</t>
         </is>
       </c>
-      <c r="P64" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>11/11/2023 15:57</t>
-        </is>
-      </c>
-      <c r="R64" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>09/11/2023 09:12</t>
-        </is>
-      </c>
       <c r="T64" t="n">
-        <v>2.24</v>
+        <v>2.72</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>11/11/2023 15:53</t>
+          <t>11/11/2023 15:49</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-cove-rangers/AqVBUzNA/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-queen-of-south/KfxaXxwh/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>1.9</v>
+        <v>1.14</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.79</v>
+        <v>1.09</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>11/11/2023 15:54</t>
+          <t>10/11/2023 16:03</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.92</v>
+        <v>7.57</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.32</v>
+        <v>11.04</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>11/11/2023 15:54</t>
+          <t>11/11/2023 15:46</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.22</v>
+        <v>11.46</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.74</v>
+        <v>22.57</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>11/11/2023 15:54</t>
+          <t>11/11/2023 15:46</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-annan/lzUFTfxH/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-edinburgh-city/2JR3Wdhb/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>5.96</v>
+        <v>5.04</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>8.48</v>
+        <v>5.51</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>28/11/2023 19:24</t>
+          <t>28/11/2023 20:44</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>4.38</v>
+        <v>4.22</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>5.02</v>
+        <v>4.31</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>28/11/2023 19:24</t>
+          <t>28/11/2023 20:44</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>28/11/2023 19:24</t>
+          <t>28/11/2023 20:36</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-falkirk/vLzmMCUj/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-hamilton/UooDSEiN/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>5.04</v>
+        <v>5.96</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>5.51</v>
+        <v>8.48</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 19:24</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>4.22</v>
+        <v>4.38</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>4.31</v>
+        <v>5.02</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 19:24</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>28/11/2023 20:36</t>
+          <t>28/11/2023 19:24</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-hamilton/UooDSEiN/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-falkirk/vLzmMCUj/</t>
         </is>
       </c>
     </row>
@@ -7078,6 +7078,926 @@
       <c r="V72" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-queen-of-south/StHsrfiA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45269.66666666666</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Montrose</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Queen of South</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-queen-of-south/StwDcZjc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45269.66666666666</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Alloa</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-hamilton/G29fuhyT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45269.66666666666</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Annan</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:01</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-cove-rangers/IBeMzCqp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45269.66666666666</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Edinburgh City</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Stirling</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>3</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-stirling/zmjRZVbj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45269.66666666666</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>09/12/2023 08:49</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:01</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>07/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:01</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-kelty-hearts/EwkVYkEd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45276.66666666666</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Montrose</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-montrose/2aVPfXzG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45276.66666666666</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Queen of South</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Edinburgh City</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>15/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:45</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>15/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:45</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>15/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:45</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-edinburgh-city/dzpTgijM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45276.66666666666</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Alloa</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:49</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:27</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-alloa/tpsHdg63/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45276.66666666666</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-falkirk/O8WLeDL9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45276.66666666666</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Stirling</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Annan</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-annan/zRrXhB5S/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-one_2023-2024.xlsx
+++ b/2023/scotland_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.96</v>
+        <v>1.68</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.11</v>
+        <v>1.6</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>07/10/2023 15:41</t>
+          <t>07/10/2023 03:06</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.49</v>
+        <v>3.83</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.6</v>
+        <v>4.19</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>07/10/2023 15:41</t>
+          <t>07/10/2023 14:03</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.27</v>
+        <v>4.08</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.26</v>
+        <v>4.6</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>07/10/2023 15:41</t>
+          <t>07/10/2023 03:06</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-stirling/QF5kHQnf/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-annan/b5LAO8fK/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>1.96</v>
+        <v>3.09</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.02</v>
+        <v>3.64</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:35</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.48</v>
+        <v>3.45</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.63</v>
+        <v>4.03</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.28</v>
+        <v>2.05</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.48</v>
+        <v>1.87</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-alloa/CC1oI6Xm/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-kelty-hearts/GtGFNS9Q/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.6</v>
+        <v>2.02</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>07/10/2023 03:06</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.83</v>
+        <v>3.48</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.19</v>
+        <v>3.63</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>07/10/2023 14:03</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.08</v>
+        <v>3.28</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.6</v>
+        <v>3.48</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>07/10/2023 03:06</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-annan/b5LAO8fK/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-alloa/CC1oI6Xm/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Stirling</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Kelty Hearts</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>4</v>
-      </c>
       <c r="J45" t="n">
-        <v>3.09</v>
+        <v>1.96</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.64</v>
+        <v>2.11</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>07/10/2023 15:35</t>
+          <t>07/10/2023 15:41</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.45</v>
+        <v>3.49</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.03</v>
+        <v>3.6</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:41</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.05</v>
+        <v>3.27</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.87</v>
+        <v>3.26</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:41</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-kelty-hearts/GtGFNS9Q/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-stirling/QF5kHQnf/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>2.5</v>
+        <v>2.09</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.33</v>
+        <v>3.35</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.69</v>
+        <v>3.16</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.5</v>
+        <v>3.08</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.64</v>
+        <v>3.43</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-kelty-hearts/zFEyTNo6/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-alloa/t4weYINo/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,14 +5641,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>3.12</v>
+        <v>5.39</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4.01</v>
+        <v>8.18</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>04/11/2023 13:18</t>
+          <t>04/11/2023 15:36</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.46</v>
+        <v>4.14</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.72</v>
+        <v>5.09</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>04/11/2023 14:06</t>
+          <t>04/11/2023 15:36</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.04</v>
+        <v>1.5</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>1.84</v>
+        <v>1.36</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>04/11/2023 13:18</t>
+          <t>04/11/2023 15:36</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-hamilton/YaXvSs1C/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-falkirk/hlpD9Zpo/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>3.27</v>
+        <v>3.12</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3.05</v>
+        <v>4.01</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>04/11/2023 14:22</t>
+          <t>04/11/2023 13:18</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.85</v>
+        <v>3.72</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>04/11/2023 15:34</t>
+          <t>04/11/2023 14:06</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.13</v>
+        <v>1.84</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>04/11/2023 15:34</t>
+          <t>04/11/2023 13:18</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-montrose/GOMqR1GI/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-hamilton/YaXvSs1C/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>5.39</v>
+        <v>2.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>8.18</v>
+        <v>2.45</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>04/11/2023 15:36</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.14</v>
+        <v>3.33</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>5.09</v>
+        <v>3.69</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>04/11/2023 15:36</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>1.36</v>
+        <v>2.64</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>04/11/2023 15:36</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-falkirk/hlpD9Zpo/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-kelty-hearts/zFEyTNo6/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J60" t="n">
-        <v>2.09</v>
+        <v>3.27</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.23</v>
+        <v>3.05</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 14:22</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.35</v>
+        <v>3.59</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.16</v>
+        <v>3.85</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:34</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.08</v>
+        <v>1.93</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.43</v>
+        <v>2.13</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:34</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-alloa/t4weYINo/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-montrose/GOMqR1GI/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.9</v>
+        <v>2.41</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.79</v>
+        <v>2.46</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>11/11/2023 15:54</t>
+          <t>11/11/2023 15:49</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.92</v>
+        <v>3.29</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>4.32</v>
+        <v>3.52</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>11/11/2023 15:54</t>
+          <t>11/11/2023 15:20</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.22</v>
+        <v>2.62</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.74</v>
+        <v>2.72</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>11/11/2023 15:54</t>
+          <t>11/11/2023 15:49</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-annan/lzUFTfxH/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-queen-of-south/KfxaXxwh/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.46</v>
+        <v>1.14</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3.06</v>
+        <v>1.09</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>10/11/2023 16:03</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.33</v>
+        <v>7.57</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.51</v>
+        <v>11.04</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:46</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.53</v>
+        <v>11.46</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.24</v>
+        <v>22.57</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>11/11/2023 15:53</t>
+          <t>11/11/2023 15:46</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-cove-rangers/AqVBUzNA/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-edinburgh-city/2JR3Wdhb/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>1</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Queen of South</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.41</v>
+        <v>2.46</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.46</v>
+        <v>3.06</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>11/11/2023 15:49</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.29</v>
+        <v>3.33</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.52</v>
+        <v>3.51</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>11/11/2023 15:20</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.62</v>
+        <v>2.53</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.72</v>
+        <v>2.24</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>11/11/2023 15:49</t>
+          <t>11/11/2023 15:53</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-queen-of-south/KfxaXxwh/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-cove-rangers/AqVBUzNA/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>1.14</v>
+        <v>1.9</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.09</v>
+        <v>1.79</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>10/11/2023 16:03</t>
+          <t>11/11/2023 15:54</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>7.57</v>
+        <v>3.92</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>11.04</v>
+        <v>4.32</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>11/11/2023 15:46</t>
+          <t>11/11/2023 15:54</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>11.46</v>
+        <v>3.22</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>22.57</v>
+        <v>3.74</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>11/11/2023 15:46</t>
+          <t>11/11/2023 15:54</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-edinburgh-city/2JR3Wdhb/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-annan/lzUFTfxH/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,14 +6561,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.68</v>
+        <v>3.04</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.66</v>
+        <v>4.08</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>18/11/2023 15:54</t>
+          <t>18/11/2023 15:15</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.77</v>
+        <v>3.52</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.75</v>
+        <v>3.97</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>18/11/2023 15:54</t>
+          <t>18/11/2023 15:15</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.15</v>
+        <v>2.05</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>5.31</v>
+        <v>1.78</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>18/11/2023 15:54</t>
+          <t>18/11/2023 15:15</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-stirling/8xpHRY6T/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-alloa/QHWrNhFp/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>3</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Alloa</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
       <c r="J68" t="n">
-        <v>3.04</v>
+        <v>2.08</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4.08</v>
+        <v>2.09</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>18/11/2023 15:15</t>
+          <t>18/11/2023 15:52</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.52</v>
+        <v>3.48</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.97</v>
+        <v>3.63</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>18/11/2023 15:15</t>
+          <t>18/11/2023 15:52</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.05</v>
+        <v>3.09</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.78</v>
+        <v>3.3</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>18/11/2023 15:15</t>
+          <t>18/11/2023 15:52</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-alloa/QHWrNhFp/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-kelty-hearts/tQEVpd7i/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>3</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Stirling</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>1</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Kelty Hearts</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>3</v>
-      </c>
       <c r="J69" t="n">
-        <v>2.08</v>
+        <v>1.68</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.09</v>
+        <v>1.66</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>18/11/2023 15:52</t>
+          <t>18/11/2023 15:54</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.48</v>
+        <v>3.77</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.63</v>
+        <v>3.75</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>18/11/2023 15:52</t>
+          <t>18/11/2023 15:54</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.09</v>
+        <v>4.15</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.3</v>
+        <v>5.31</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>18/11/2023 15:52</t>
+          <t>18/11/2023 15:54</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-kelty-hearts/tQEVpd7i/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-stirling/8xpHRY6T/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2.22</v>
+        <v>7.34</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.15</v>
+        <v>7.83</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>09/12/2023 15:57</t>
+          <t>09/12/2023 15:26</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.32</v>
+        <v>4.6</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.74</v>
+        <v>4.7</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>09/12/2023 15:52</t>
+          <t>09/12/2023 15:26</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.94</v>
+        <v>1.36</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.07</v>
+        <v>1.4</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>09/12/2023 15:57</t>
+          <t>09/12/2023 15:26</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-queen-of-south/StwDcZjc/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-hamilton/G29fuhyT/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>7.34</v>
+        <v>3.8</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>7.83</v>
+        <v>3.76</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>09/12/2023 15:26</t>
+          <t>09/12/2023 15:57</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4.6</v>
+        <v>3.66</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>4.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>09/12/2023 15:26</t>
+          <t>09/12/2023 15:57</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>1.36</v>
+        <v>1.79</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.4</v>
+        <v>1.91</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>09/12/2023 15:26</t>
+          <t>09/12/2023 14:01</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-hamilton/G29fuhyT/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-cove-rangers/IBeMzCqp/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>3.76</v>
+        <v>10.24</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>09/12/2023 15:57</t>
+          <t>09/12/2023 15:59</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.66</v>
+        <v>3.4</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.75</v>
+        <v>6.69</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>09/12/2023 15:57</t>
+          <t>09/12/2023 15:59</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>1.91</v>
+        <v>1.16</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>09/12/2023 14:01</t>
+          <t>09/12/2023 15:59</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-cove-rangers/IBeMzCqp/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-stirling/zmjRZVbj/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>1</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Stirling</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>3</v>
-      </c>
       <c r="J76" t="n">
-        <v>3.1</v>
+        <v>1.28</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>10.24</v>
+        <v>1.27</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>09/12/2023 15:59</t>
+          <t>09/12/2023 08:49</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.4</v>
+        <v>5.14</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>6.69</v>
+        <v>5.77</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>09/12/2023 15:59</t>
+          <t>09/12/2023 14:01</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.1</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.16</v>
+        <v>10.83</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>09/12/2023 15:59</t>
+          <t>09/12/2023 14:01</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-stirling/zmjRZVbj/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-kelty-hearts/EwkVYkEd/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J77" t="n">
-        <v>1.28</v>
+        <v>2.22</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.27</v>
+        <v>2.15</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>09/12/2023 08:49</t>
+          <t>09/12/2023 15:57</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>5.14</v>
+        <v>3.32</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>5.77</v>
+        <v>3.74</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>09/12/2023 14:01</t>
+          <t>09/12/2023 15:52</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>8.720000000000001</v>
+        <v>2.94</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>10.83</v>
+        <v>3.07</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>09/12/2023 14:01</t>
+          <t>09/12/2023 15:57</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-kelty-hearts/EwkVYkEd/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-queen-of-south/StwDcZjc/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>1.14</v>
+        <v>1.66</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>15/12/2023 14:12</t>
+          <t>14/12/2023 09:13</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.16</v>
+        <v>1.7</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>16/12/2023 15:45</t>
+          <t>16/12/2023 15:27</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>7.33</v>
+        <v>3.71</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>15/12/2023 14:12</t>
+          <t>14/12/2023 09:13</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>7.65</v>
+        <v>3.84</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>16/12/2023 15:45</t>
+          <t>16/12/2023 15:49</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>12.74</v>
+        <v>4.5</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>15/12/2023 14:12</t>
+          <t>14/12/2023 09:13</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>14.87</v>
+        <v>4.78</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>16/12/2023 15:45</t>
+          <t>16/12/2023 15:27</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-edinburgh-city/dzpTgijM/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-alloa/tpsHdg63/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>1.66</v>
+        <v>2.4</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>16/12/2023 15:27</t>
+          <t>16/12/2023 15:58</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.71</v>
+        <v>3.09</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.84</v>
+        <v>3.17</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>16/12/2023 15:49</t>
+          <t>16/12/2023 15:58</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>4.5</v>
+        <v>2.84</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>4.78</v>
+        <v>2.51</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>16/12/2023 15:27</t>
+          <t>16/12/2023 15:58</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-alloa/tpsHdg63/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-falkirk/O8WLeDL9/</t>
         </is>
       </c>
     </row>
@@ -7841,71 +7841,71 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Edinburgh City</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
         <v>1</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Falkirk</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>3</v>
-      </c>
       <c r="J81" t="n">
-        <v>2.4</v>
+        <v>1.14</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>14/12/2023 09:13</t>
+          <t>15/12/2023 14:12</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.9</v>
+        <v>1.16</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>16/12/2023 15:58</t>
+          <t>16/12/2023 15:45</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.09</v>
+        <v>7.33</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>14/12/2023 09:13</t>
+          <t>15/12/2023 14:12</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.17</v>
+        <v>7.65</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>16/12/2023 15:58</t>
+          <t>16/12/2023 15:45</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.84</v>
+        <v>12.74</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>14/12/2023 09:13</t>
+          <t>15/12/2023 14:12</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.51</v>
+        <v>14.87</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>16/12/2023 15:58</t>
+          <t>16/12/2023 15:45</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-falkirk/O8WLeDL9/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-edinburgh-city/dzpTgijM/</t>
         </is>
       </c>
     </row>
@@ -7998,6 +7998,834 @@
       <c r="V82" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/scotland/league-one/stirling-annan/zRrXhB5S/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45283.66666666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Annan</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:40</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:40</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:40</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-falkirk/fBP3mkTk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45283.66666666666</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Alloa</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Montrose</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:50</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-montrose/t8LalVDq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45283.66666666666</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-kelty-hearts/SONBoTc2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45283.66666666666</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Stirling</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Queen of South</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:55</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:55</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-queen-of-south/69ghfL12/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45283.6875</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>7</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Edinburgh City</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>22/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:08</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>22/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:34</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>22/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:34</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-edinburgh-city/lYO7n9rd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45290.66666666666</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Queen of South</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Annan</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:17</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:17</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:17</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-annan/zVWznc9r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45290.66666666666</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>5</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Stirling</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>17.91</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-stirling/vNi0haWE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45290.66666666666</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Edinburgh City</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>5</v>
+      </c>
+      <c r="J90" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>29/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>35.63</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>29/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>29/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:55</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-hamilton/p0hdguH8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45290.66666666666</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Montrose</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>28/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:43</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-cove-rangers/YLp9jw1R/</t>
         </is>
       </c>
     </row>

--- a/2023/scotland_league-one_2023-2024.xlsx
+++ b/2023/scotland_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.64</v>
+        <v>2.55</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.41</v>
+        <v>2.53</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 15:37</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.24</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.52</v>
+        <v>3.37</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>19/08/2023 15:50</t>
+          <t>19/08/2023 15:37</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.41</v>
+        <v>2.55</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.78</v>
+        <v>2.73</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 15:37</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-cove-rangers/KMfNda5A/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-alloa/xb5Icuj4/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.55</v>
+        <v>3.63</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.53</v>
+        <v>5.18</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>19/08/2023 15:37</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.15</v>
+        <v>3.63</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.37</v>
+        <v>4.27</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>19/08/2023 15:37</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.55</v>
+        <v>1.81</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.73</v>
+        <v>1.59</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>19/08/2023 15:37</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-alloa/xb5Icuj4/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-hamilton/js7Aa1Li/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.63</v>
+        <v>2.64</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5.18</v>
+        <v>2.41</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.63</v>
+        <v>3.24</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.27</v>
+        <v>3.52</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:50</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.81</v>
+        <v>2.41</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.59</v>
+        <v>2.78</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-hamilton/js7Aa1Li/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-cove-rangers/KMfNda5A/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>2.32</v>
+        <v>5.43</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.57</v>
+        <v>6.82</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.5</v>
+        <v>4.14</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.66</v>
+        <v>4.59</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>21/10/2023 14:03</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.66</v>
+        <v>1.5</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.53</v>
+        <v>1.44</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-kelty-hearts/8vefGp20/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-falkirk/ziWlxSOJ/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2.63</v>
+        <v>1.19</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.64</v>
+        <v>1.17</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:35</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.46</v>
+        <v>6.55</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.69</v>
+        <v>7.9</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>21/10/2023 15:17</t>
+          <t>21/10/2023 15:35</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.37</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.45</v>
+        <v>13.65</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:35</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-queen-of-south/nVgbF4H6/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-edinburgh-city/Yoh6DrnJ/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.19</v>
+        <v>2.63</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.17</v>
+        <v>2.64</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>21/10/2023 15:35</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>6.55</v>
+        <v>3.46</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>7.9</v>
+        <v>3.69</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>21/10/2023 15:35</t>
+          <t>21/10/2023 15:17</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>9.529999999999999</v>
+        <v>2.37</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>13.65</v>
+        <v>2.45</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>21/10/2023 15:35</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-edinburgh-city/Yoh6DrnJ/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-queen-of-south/nVgbF4H6/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Falkirk</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
       <c r="J50" t="n">
-        <v>5.43</v>
+        <v>2.32</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>6.82</v>
+        <v>2.57</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.14</v>
+        <v>3.5</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.59</v>
+        <v>3.66</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 14:03</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.5</v>
+        <v>2.66</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.44</v>
+        <v>2.53</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-falkirk/ziWlxSOJ/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-kelty-hearts/8vefGp20/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.09</v>
+        <v>5.39</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.23</v>
+        <v>8.18</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:36</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.35</v>
+        <v>4.14</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.16</v>
+        <v>5.09</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:36</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.08</v>
+        <v>1.5</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.43</v>
+        <v>1.36</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>04/11/2023 15:54</t>
+          <t>04/11/2023 15:36</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-alloa/t4weYINo/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-falkirk/hlpD9Zpo/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,14 +5641,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J57" t="n">
-        <v>5.39</v>
+        <v>3.27</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>8.18</v>
+        <v>3.05</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>04/11/2023 15:36</t>
+          <t>04/11/2023 14:22</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.14</v>
+        <v>3.59</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>5.09</v>
+        <v>3.85</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>04/11/2023 15:36</t>
+          <t>04/11/2023 15:34</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>1.5</v>
+        <v>1.93</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>1.36</v>
+        <v>2.13</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>04/11/2023 15:36</t>
+          <t>04/11/2023 15:34</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-falkirk/hlpD9Zpo/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-montrose/GOMqR1GI/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>3.12</v>
+        <v>2.09</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4.01</v>
+        <v>2.23</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>04/11/2023 13:18</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.46</v>
+        <v>3.35</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.72</v>
+        <v>3.16</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>04/11/2023 14:06</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.04</v>
+        <v>3.08</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>1.84</v>
+        <v>3.43</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>04/11/2023 13:18</t>
+          <t>04/11/2023 15:54</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-hamilton/YaXvSs1C/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-alloa/t4weYINo/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>3.27</v>
+        <v>3.12</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3.05</v>
+        <v>4.01</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>04/11/2023 14:22</t>
+          <t>04/11/2023 13:18</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.85</v>
+        <v>3.72</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>04/11/2023 15:34</t>
+          <t>04/11/2023 14:06</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.13</v>
+        <v>1.84</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>04/11/2023 15:34</t>
+          <t>04/11/2023 13:18</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-montrose/GOMqR1GI/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-hamilton/YaXvSs1C/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,14 +6561,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>3.04</v>
+        <v>1.68</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>4.08</v>
+        <v>1.66</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>18/11/2023 15:15</t>
+          <t>18/11/2023 15:54</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.52</v>
+        <v>3.77</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.97</v>
+        <v>3.75</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>18/11/2023 15:15</t>
+          <t>18/11/2023 15:54</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.05</v>
+        <v>4.15</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>1.78</v>
+        <v>5.31</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>18/11/2023 15:15</t>
+          <t>18/11/2023 15:54</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-alloa/QHWrNhFp/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-stirling/8xpHRY6T/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.08</v>
+        <v>3.04</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.09</v>
+        <v>4.08</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>18/11/2023 15:52</t>
+          <t>18/11/2023 15:15</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.63</v>
+        <v>3.97</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>18/11/2023 15:52</t>
+          <t>18/11/2023 15:15</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.09</v>
+        <v>2.05</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.3</v>
+        <v>1.78</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>18/11/2023 15:52</t>
+          <t>18/11/2023 15:15</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-kelty-hearts/tQEVpd7i/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/edinburgh-city-alloa/QHWrNhFp/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>3</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Stirling</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
       <c r="J69" t="n">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.66</v>
+        <v>2.09</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>18/11/2023 15:54</t>
+          <t>18/11/2023 15:52</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.77</v>
+        <v>3.48</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.75</v>
+        <v>3.63</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>18/11/2023 15:54</t>
+          <t>18/11/2023 15:52</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>4.15</v>
+        <v>3.09</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>5.31</v>
+        <v>3.3</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>18/11/2023 15:54</t>
+          <t>18/11/2023 15:52</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-stirling/8xpHRY6T/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-kelty-hearts/tQEVpd7i/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>2.18</v>
+        <v>1.66</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.12</v>
+        <v>1.7</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>16/12/2023 15:53</t>
+          <t>16/12/2023 15:27</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.32</v>
+        <v>3.71</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.6</v>
+        <v>3.84</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>16/12/2023 15:53</t>
+          <t>16/12/2023 15:49</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.25</v>
+        <v>4.78</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>16/12/2023 15:53</t>
+          <t>16/12/2023 15:27</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-montrose/2aVPfXzG/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-alloa/tpsHdg63/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>1.66</v>
+        <v>2.4</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>16/12/2023 15:27</t>
+          <t>16/12/2023 15:58</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.71</v>
+        <v>3.09</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.84</v>
+        <v>3.17</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>16/12/2023 15:49</t>
+          <t>16/12/2023 15:58</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>4.5</v>
+        <v>2.84</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>4.78</v>
+        <v>2.51</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>16/12/2023 15:27</t>
+          <t>16/12/2023 15:58</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-alloa/tpsHdg63/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-falkirk/O8WLeDL9/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Montrose</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
         <v>1</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Falkirk</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
         <v>3</v>
       </c>
-      <c r="J80" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K80" t="inlineStr">
+      <c r="S80" t="inlineStr">
         <is>
           <t>14/12/2023 09:13</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>16/12/2023 15:58</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>14/12/2023 09:13</t>
-        </is>
-      </c>
-      <c r="P80" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>16/12/2023 15:58</t>
-        </is>
-      </c>
-      <c r="R80" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>14/12/2023 09:13</t>
-        </is>
-      </c>
       <c r="T80" t="n">
-        <v>2.51</v>
+        <v>3.25</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>16/12/2023 15:58</t>
+          <t>16/12/2023 15:53</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-falkirk/O8WLeDL9/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/kelty-hearts-montrose/2aVPfXzG/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>7.07</v>
+        <v>2.34</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>10.78</v>
+        <v>2.67</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>23/12/2023 15:40</t>
+          <t>23/12/2023 15:56</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>4.77</v>
+        <v>3.26</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>6.56</v>
+        <v>3.44</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>23/12/2023 15:40</t>
+          <t>23/12/2023 15:55</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>1.35</v>
+        <v>2.78</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.23</v>
+        <v>2.54</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>23/12/2023 15:40</t>
+          <t>23/12/2023 15:55</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/annan-falkirk/fBP3mkTk/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-queen-of-south/69ghfL12/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Alloa</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.44</v>
+        <v>1.29</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.02</v>
+        <v>1.39</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>23/12/2023 15:50</t>
+          <t>23/12/2023 15:53</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.24</v>
+        <v>5.1</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.35</v>
+        <v>4.78</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>23/12/2023 15:57</t>
+          <t>23/12/2023 15:53</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.67</v>
+        <v>8.52</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.77</v>
+        <v>7.77</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>23/12/2023 15:57</t>
+          <t>23/12/2023 15:53</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-montrose/t8LalVDq/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-kelty-hearts/SONBoTc2/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Kelty Hearts</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>1.29</v>
+        <v>7.07</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.39</v>
+        <v>10.78</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>23/12/2023 15:53</t>
+          <t>23/12/2023 15:40</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>5.1</v>
+        <v>4.77</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.78</v>
+        <v>6.56</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>23/12/2023 15:53</t>
+          <t>23/12/2023 15:40</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>8.52</v>
+        <v>1.35</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>7.77</v>
+        <v>1.23</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>23/12/2023 15:53</t>
+          <t>23/12/2023 15:40</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/hamilton-kelty-hearts/SONBoTc2/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-falkirk/fBP3mkTk/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Alloa</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,48 +8324,48 @@
         </is>
       </c>
       <c r="L86" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:50</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>21/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
         <v>2.67</v>
       </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>23/12/2023 15:56</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O86" t="inlineStr">
+      <c r="S86" t="inlineStr">
         <is>
           <t>21/12/2023 09:12</t>
         </is>
       </c>
-      <c r="P86" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>23/12/2023 15:55</t>
-        </is>
-      </c>
-      <c r="R86" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>21/12/2023 09:12</t>
-        </is>
-      </c>
       <c r="T86" t="n">
-        <v>2.54</v>
+        <v>3.77</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>23/12/2023 15:55</t>
+          <t>23/12/2023 15:57</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/stirling-queen-of-south/69ghfL12/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-montrose/t8LalVDq/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.69</v>
+        <v>1.22</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.91</v>
+        <v>1.14</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>30/12/2023 15:17</t>
+          <t>30/12/2023 15:28</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.82</v>
+        <v>5.75</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.77</v>
+        <v>8.06</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>30/12/2023 15:17</t>
+          <t>30/12/2023 15:28</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.17</v>
+        <v>10.7</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.72</v>
+        <v>17.91</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>30/12/2023 15:17</t>
+          <t>30/12/2023 15:28</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-annan/zVWznc9r/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-stirling/vNi0haWE/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>1.22</v>
+        <v>3.39</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.14</v>
+        <v>3.43</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>30/12/2023 15:28</t>
+          <t>30/12/2023 15:59</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>5.75</v>
+        <v>3.56</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>8.06</v>
+        <v>3.88</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>30/12/2023 15:28</t>
+          <t>30/12/2023 15:59</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>10.7</v>
+        <v>1.93</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>17.91</v>
+        <v>1.97</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>30/12/2023 15:28</t>
+          <t>30/12/2023 15:43</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-stirling/vNi0haWE/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-cove-rangers/YLp9jw1R/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>3.39</v>
+        <v>1.69</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>3.43</v>
+        <v>1.91</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>30/12/2023 15:59</t>
+          <t>30/12/2023 15:17</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.56</v>
+        <v>3.82</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.88</v>
+        <v>3.77</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>30/12/2023 15:59</t>
+          <t>30/12/2023 15:17</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>1.93</v>
+        <v>4.17</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,384 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1.97</v>
+        <v>3.72</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>30/12/2023 15:43</t>
+          <t>30/12/2023 15:17</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/scotland/league-one/montrose-cove-rangers/YLp9jw1R/</t>
+          <t>https://www.betexplorer.com/football/scotland/league-one/queen-of-south-annan/zVWznc9r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45297.66666666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:59</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:59</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:59</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/cove-rangers-kelty-hearts/QJPmqeg1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45297.66666666666</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Alloa</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>3</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Edinburgh City</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>06/01/2024 10:13</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:45</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>06/01/2024 10:13</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:59</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>06/01/2024 10:13</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:59</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/alloa-edinburgh-city/44yuoHOl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45297.66666666666</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Annan</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Montrose</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>2</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:57</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:55</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:57</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/annan-montrose/rezqpyve/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>scotland</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45297.66666666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Queen of South</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:56</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:56</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:13</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:56</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/scotland/league-one/falkirk-queen-of-south/vNTirF87/</t>
         </is>
       </c>
     </row>
